--- a/misc/mapping.xlsx
+++ b/misc/mapping.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arogy\projects\kathmandu-portal-data\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\arogya\projects\c2m2\kathmandu-survey\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="23070" windowHeight="9878"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="18735" windowHeight="9608"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="523">
   <si>
     <t>variable</t>
   </si>
@@ -1179,6 +1179,417 @@
   </si>
   <si>
     <t>choice_code</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>1 to 3 months</t>
+  </si>
+  <si>
+    <t>4 to 6 months</t>
+  </si>
+  <si>
+    <t>7 to 9 months</t>
+  </si>
+  <si>
+    <t>10 to 11 months</t>
+  </si>
+  <si>
+    <t>25% of last year</t>
+  </si>
+  <si>
+    <t>50% of last year</t>
+  </si>
+  <si>
+    <t>75% of last year</t>
+  </si>
+  <si>
+    <t>Same as last year</t>
+  </si>
+  <si>
+    <t>Income grew</t>
+  </si>
+  <si>
+    <t>Income was almost zero</t>
+  </si>
+  <si>
+    <t>Yes, partially engaged</t>
+  </si>
+  <si>
+    <t>Yes, fully engaged</t>
+  </si>
+  <si>
+    <t>No, completely left</t>
+  </si>
+  <si>
+    <t>No, currently unemployed but looking for work</t>
+  </si>
+  <si>
+    <t>Before March 2020</t>
+  </si>
+  <si>
+    <t>Between March and September 2020</t>
+  </si>
+  <si>
+    <t>Between October and December 2020</t>
+  </si>
+  <si>
+    <t>After December 2021</t>
+  </si>
+  <si>
+    <t>Rotational employment</t>
+  </si>
+  <si>
+    <t>No effect</t>
+  </si>
+  <si>
+    <t>No change due to Covid 19</t>
+  </si>
+  <si>
+    <t>Yes, but I've moved back since</t>
+  </si>
+  <si>
+    <t>Yes, switched to a different neighbourhood</t>
+  </si>
+  <si>
+    <t>Yes, swiched to a new village/city</t>
+  </si>
+  <si>
+    <t>Less than a month</t>
+  </si>
+  <si>
+    <t>2 to 6 months</t>
+  </si>
+  <si>
+    <t>More than 6 months</t>
+  </si>
+  <si>
+    <t>Less than 20 years</t>
+  </si>
+  <si>
+    <t>21 - 40 years</t>
+  </si>
+  <si>
+    <t>41 - 60 years</t>
+  </si>
+  <si>
+    <t>61 and above</t>
+  </si>
+  <si>
+    <t>No education</t>
+  </si>
+  <si>
+    <t>Can read and write</t>
+  </si>
+  <si>
+    <t>SLC or equivalent</t>
+  </si>
+  <si>
+    <t>10+2 or equivalent</t>
+  </si>
+  <si>
+    <t>Undergaduate or equivalent</t>
+  </si>
+  <si>
+    <t>Master's or higher</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Third gender</t>
+  </si>
+  <si>
+    <t>Suryabinayak Municipality</t>
+  </si>
+  <si>
+    <t>Shankharapur Municipality</t>
+  </si>
+  <si>
+    <t>Mahankal Municipality</t>
+  </si>
+  <si>
+    <t>6 to 10 years</t>
+  </si>
+  <si>
+    <t>11 to 15 years</t>
+  </si>
+  <si>
+    <t>15 years or more</t>
+  </si>
+  <si>
+    <t>3 to 5 years</t>
+  </si>
+  <si>
+    <t>0 to 2 years</t>
+  </si>
+  <si>
+    <t>Will reduce by 25%</t>
+  </si>
+  <si>
+    <t>Will stay the same</t>
+  </si>
+  <si>
+    <t>Will reduce by 50%</t>
+  </si>
+  <si>
+    <t>Will reduce by 75%</t>
+  </si>
+  <si>
+    <t>Will reduce to zero</t>
+  </si>
+  <si>
+    <t>Will grow</t>
+  </si>
+  <si>
+    <t>Less than 6 months</t>
+  </si>
+  <si>
+    <t>6 to 12 months</t>
+  </si>
+  <si>
+    <t>13 to 24 months</t>
+  </si>
+  <si>
+    <t>24 months or more</t>
+  </si>
+  <si>
+    <t>Immediately</t>
+  </si>
+  <si>
+    <t>Within 3 months</t>
+  </si>
+  <si>
+    <t>Within 12 months</t>
+  </si>
+  <si>
+    <t>Can't say</t>
+  </si>
+  <si>
+    <t>I'm planning to leave the tourism sector</t>
+  </si>
+  <si>
+    <t>Has stayed the same</t>
+  </si>
+  <si>
+    <t>Has reduced to 75%</t>
+  </si>
+  <si>
+    <t>Has reduced to 50%</t>
+  </si>
+  <si>
+    <t>Has reduced to 25%</t>
+  </si>
+  <si>
+    <t>Has reduced to zero</t>
+  </si>
+  <si>
+    <t>Has grown</t>
+  </si>
+  <si>
+    <t>Only me</t>
+  </si>
+  <si>
+    <t>2 people</t>
+  </si>
+  <si>
+    <t>3 to 5 people</t>
+  </si>
+  <si>
+    <t>6 people or more</t>
+  </si>
+  <si>
+    <t>Family and friends</t>
+  </si>
+  <si>
+    <t>Social media</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>Newspapers</t>
+  </si>
+  <si>
+    <t>Nearby health service provider</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>NGO</t>
+  </si>
+  <si>
+    <t>Employer</t>
+  </si>
+  <si>
+    <t>Hotel / workers associations</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Cable TV connection</t>
+  </si>
+  <si>
+    <t>Computer / laptop</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Mobile phone</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Motorcycle</t>
+  </si>
+  <si>
+    <t>Four wheeler for self/family use</t>
+  </si>
+  <si>
+    <t>Four wheeler for commercial use</t>
+  </si>
+  <si>
+    <t>None of the above</t>
+  </si>
+  <si>
+    <t>Seasonal work</t>
+  </si>
+  <si>
+    <t>Daily wages</t>
+  </si>
+  <si>
+    <t>Monthly salary</t>
+  </si>
+  <si>
+    <t>Shopkeeper</t>
+  </si>
+  <si>
+    <t>Tour guide</t>
+  </si>
+  <si>
+    <t>Trekking guide</t>
+  </si>
+  <si>
+    <t>Rafting guide</t>
+  </si>
+  <si>
+    <t>Mountain guide</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>Travel agent</t>
+  </si>
+  <si>
+    <t>Flight attendant</t>
+  </si>
+  <si>
+    <t>Pilot</t>
+  </si>
+  <si>
+    <t>Chef / cook</t>
+  </si>
+  <si>
+    <t>Hotel manager</t>
+  </si>
+  <si>
+    <t>Hotel staff</t>
+  </si>
+  <si>
+    <t>Waiter</t>
+  </si>
+  <si>
+    <t>Bartender</t>
+  </si>
+  <si>
+    <t>Porter</t>
+  </si>
+  <si>
+    <t>Loan through financial institutions</t>
+  </si>
+  <si>
+    <t>Loan through friends and family</t>
+  </si>
+  <si>
+    <t>Stopped education of a family member</t>
+  </si>
+  <si>
+    <t>Stopped health services for family members</t>
+  </si>
+  <si>
+    <t>Sold personal assets</t>
+  </si>
+  <si>
+    <t>Sold professional assets (camera, etc.)</t>
+  </si>
+  <si>
+    <t>Sold land or property</t>
+  </si>
+  <si>
+    <t>Lost job</t>
+  </si>
+  <si>
+    <t>Lost self-employment</t>
+  </si>
+  <si>
+    <t>Salary cut</t>
+  </si>
+  <si>
+    <t>Couldn't renew licences and permits</t>
+  </si>
+  <si>
+    <t>Took up ininteresting job</t>
+  </si>
+  <si>
+    <t>Winning tourists confidence</t>
+  </si>
+  <si>
+    <t>Ensuring HHS Compliance\</t>
+  </si>
+  <si>
+    <t>Overcoming financial challenges</t>
+  </si>
+  <si>
+    <t>Difficulty paying for health services</t>
+  </si>
+  <si>
+    <t>Difficulty paying for education</t>
+  </si>
+  <si>
+    <t>Difficulty paying for food</t>
+  </si>
+  <si>
+    <t>o_impct_to_self_nxt_6_mnths_rnk_1</t>
+  </si>
+  <si>
+    <t>Difficulty covering rent</t>
+  </si>
+  <si>
+    <t>Difficulty covering rent (partial amount)</t>
+  </si>
+  <si>
+    <t>Difficulty in borrowing cash</t>
+  </si>
+  <si>
+    <t>Difficulty in repaying existing debt</t>
   </si>
 </sst>
 </file>
@@ -1458,15 +1869,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F476"/>
+  <dimension ref="A1:F485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0">
-      <selection activeCell="E476" sqref="E476"/>
+    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
+      <selection activeCell="D483" sqref="D483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.73046875" customWidth="1"/>
   </cols>
@@ -1501,7 +1912,9 @@
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1519,7 +1932,9 @@
       <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1537,7 +1952,9 @@
       <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1555,7 +1972,9 @@
       <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1573,7 +1992,9 @@
       <c r="C6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1589,7 +2010,9 @@
       <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1605,7 +2028,9 @@
       <c r="C8" s="2">
         <v>7</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1621,7 +2046,9 @@
       <c r="C9" s="2">
         <v>8</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1637,7 +2064,9 @@
       <c r="C10" s="2">
         <v>9</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1653,7 +2082,9 @@
       <c r="C11" s="2">
         <v>10</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1669,7 +2100,9 @@
       <c r="C12" s="2">
         <v>11</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1685,7 +2118,9 @@
       <c r="C13" s="2">
         <v>12</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,7 +2136,9 @@
       <c r="C14" s="2">
         <v>13</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>395</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1717,7 +2154,9 @@
       <c r="C15" s="2">
         <v>14</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>396</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1733,7 +2172,9 @@
       <c r="C16" s="2">
         <v>15</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1749,7 +2190,9 @@
       <c r="C17" s="2">
         <v>16</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1765,7 +2208,9 @@
       <c r="C18" s="2">
         <v>17</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1781,7 +2226,9 @@
       <c r="C19" s="2">
         <v>18</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>25</v>
       </c>
@@ -1797,7 +2244,9 @@
       <c r="C20" s="2">
         <v>19</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1813,7 +2262,9 @@
       <c r="C21" s="2">
         <v>20</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,7 +2280,9 @@
       <c r="C22" s="2">
         <v>21</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1845,7 +2298,9 @@
       <c r="C23" s="2">
         <v>22</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,7 +2316,9 @@
       <c r="C24" s="2">
         <v>23</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="E24" s="1" t="s">
         <v>34</v>
       </c>
@@ -1877,7 +2334,9 @@
       <c r="C25" s="2">
         <v>24</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="E25" s="1" t="s">
         <v>35</v>
       </c>
@@ -1893,7 +2352,9 @@
       <c r="C26" s="2">
         <v>25</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>401</v>
+      </c>
       <c r="E26" s="1" t="s">
         <v>36</v>
       </c>
@@ -1909,7 +2370,9 @@
       <c r="C27" s="2">
         <v>26</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="E27" s="1" t="s">
         <v>37</v>
       </c>
@@ -1925,7 +2388,9 @@
       <c r="C28" s="2">
         <v>27</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="E28" s="1" t="s">
         <v>39</v>
       </c>
@@ -1941,7 +2406,9 @@
       <c r="C29" s="2">
         <v>28</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>403</v>
+      </c>
       <c r="E29" s="1" t="s">
         <v>40</v>
       </c>
@@ -1957,7 +2424,9 @@
       <c r="C30" s="2">
         <v>29</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="E30" s="1" t="s">
         <v>41</v>
       </c>
@@ -1973,7 +2442,9 @@
       <c r="C31" s="2">
         <v>30</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -1989,7 +2460,9 @@
       <c r="C32" s="2">
         <v>31</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="E32" s="1" t="s">
         <v>43</v>
       </c>
@@ -2005,7 +2478,9 @@
       <c r="C33" s="2">
         <v>32</v>
       </c>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="E33" s="1" t="s">
         <v>6</v>
       </c>
@@ -2021,7 +2496,9 @@
       <c r="C34" s="2">
         <v>33</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="E34" s="1" t="s">
         <v>7</v>
       </c>
@@ -2037,7 +2514,9 @@
       <c r="C35" s="2">
         <v>34</v>
       </c>
-      <c r="D35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="E35" s="1" t="s">
         <v>6</v>
       </c>
@@ -2053,7 +2532,9 @@
       <c r="C36" s="2">
         <v>35</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="E36" s="1" t="s">
         <v>7</v>
       </c>
@@ -2069,7 +2550,9 @@
       <c r="C37" s="2">
         <v>36</v>
       </c>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>403</v>
+      </c>
       <c r="E37" s="1" t="s">
         <v>40</v>
       </c>
@@ -2085,7 +2568,9 @@
       <c r="C38" s="2">
         <v>37</v>
       </c>
-      <c r="D38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="E38" s="1" t="s">
         <v>41</v>
       </c>
@@ -2101,7 +2586,9 @@
       <c r="C39" s="2">
         <v>38</v>
       </c>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="E39" s="1" t="s">
         <v>42</v>
       </c>
@@ -2117,7 +2604,9 @@
       <c r="C40" s="2">
         <v>39</v>
       </c>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>409</v>
+      </c>
       <c r="E40" s="1" t="s">
         <v>48</v>
       </c>
@@ -2133,7 +2622,9 @@
       <c r="C41" s="2">
         <v>40</v>
       </c>
-      <c r="D41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="E41" s="1" t="s">
         <v>49</v>
       </c>
@@ -2149,7 +2640,9 @@
       <c r="C42" s="2">
         <v>41</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>411</v>
+      </c>
       <c r="E42" s="1" t="s">
         <v>50</v>
       </c>
@@ -2165,7 +2658,9 @@
       <c r="C43" s="2">
         <v>42</v>
       </c>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="E43" s="1" t="s">
         <v>25</v>
       </c>
@@ -2181,7 +2676,9 @@
       <c r="C44" s="2">
         <v>43</v>
       </c>
-      <c r="D44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>412</v>
+      </c>
       <c r="E44" s="1" t="s">
         <v>52</v>
       </c>
@@ -2197,7 +2694,9 @@
       <c r="C45" s="2">
         <v>44</v>
       </c>
-      <c r="D45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>413</v>
+      </c>
       <c r="E45" s="1" t="s">
         <v>53</v>
       </c>
@@ -2213,7 +2712,9 @@
       <c r="C46" s="2">
         <v>45</v>
       </c>
-      <c r="D46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>414</v>
+      </c>
       <c r="E46" s="1" t="s">
         <v>54</v>
       </c>
@@ -2229,7 +2730,9 @@
       <c r="C47" s="2">
         <v>46</v>
       </c>
-      <c r="D47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="E47" s="1" t="s">
         <v>29</v>
       </c>
@@ -2245,7 +2748,9 @@
       <c r="C48" s="2">
         <v>47</v>
       </c>
-      <c r="D48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="E48" s="1" t="s">
         <v>28</v>
       </c>
@@ -2261,7 +2766,9 @@
       <c r="C49" s="2">
         <v>48</v>
       </c>
-      <c r="D49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="E49" s="1" t="s">
         <v>29</v>
       </c>
@@ -2277,7 +2784,9 @@
       <c r="C50" s="2">
         <v>49</v>
       </c>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="E50" s="1" t="s">
         <v>28</v>
       </c>
@@ -2293,7 +2802,9 @@
       <c r="C51" s="2">
         <v>50</v>
       </c>
-      <c r="D51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="E51" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,7 +2820,9 @@
       <c r="C52" s="2">
         <v>51</v>
       </c>
-      <c r="D52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="E52" s="1" t="s">
         <v>28</v>
       </c>
@@ -2325,7 +2838,9 @@
       <c r="C53" s="2">
         <v>52</v>
       </c>
-      <c r="D53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="E53" s="1" t="s">
         <v>29</v>
       </c>
@@ -2341,7 +2856,9 @@
       <c r="C54" s="2">
         <v>53</v>
       </c>
-      <c r="D54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="E54" s="1" t="s">
         <v>28</v>
       </c>
@@ -2357,7 +2874,9 @@
       <c r="C55" s="2">
         <v>54</v>
       </c>
-      <c r="D55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="E55" s="1" t="s">
         <v>29</v>
       </c>
@@ -2373,7 +2892,9 @@
       <c r="C56" s="2">
         <v>55</v>
       </c>
-      <c r="D56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="E56" s="1" t="s">
         <v>28</v>
       </c>
@@ -2389,7 +2910,9 @@
       <c r="C57" s="2">
         <v>56</v>
       </c>
-      <c r="D57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="E57" s="1" t="s">
         <v>29</v>
       </c>
@@ -2405,7 +2928,9 @@
       <c r="C58" s="2">
         <v>57</v>
       </c>
-      <c r="D58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="E58" s="1" t="s">
         <v>28</v>
       </c>
@@ -2421,7 +2946,9 @@
       <c r="C59" s="2">
         <v>58</v>
       </c>
-      <c r="D59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="E59" s="1" t="s">
         <v>29</v>
       </c>
@@ -2437,7 +2964,9 @@
       <c r="C60" s="2">
         <v>59</v>
       </c>
-      <c r="D60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="E60" s="1" t="s">
         <v>28</v>
       </c>
@@ -2453,7 +2982,9 @@
       <c r="C61" s="2">
         <v>60</v>
       </c>
-      <c r="D61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="E61" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,7 +3000,9 @@
       <c r="C62" s="2">
         <v>61</v>
       </c>
-      <c r="D62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="E62" s="1" t="s">
         <v>28</v>
       </c>
@@ -2485,7 +3018,9 @@
       <c r="C63" s="2">
         <v>62</v>
       </c>
-      <c r="D63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>415</v>
+      </c>
       <c r="E63" s="1" t="s">
         <v>64</v>
       </c>
@@ -2501,7 +3036,9 @@
       <c r="C64" s="2">
         <v>63</v>
       </c>
-      <c r="D64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>416</v>
+      </c>
       <c r="E64" s="1" t="s">
         <v>65</v>
       </c>
@@ -2517,7 +3054,9 @@
       <c r="C65" s="2">
         <v>64</v>
       </c>
-      <c r="D65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="E65" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,7 +3072,9 @@
       <c r="C66" s="2">
         <v>65</v>
       </c>
-      <c r="D66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="E66" s="1" t="s">
         <v>67</v>
       </c>
@@ -5321,7 +5862,9 @@
       <c r="C221" s="2">
         <v>220</v>
       </c>
-      <c r="D221" s="1"/>
+      <c r="D221" s="1" t="s">
+        <v>419</v>
+      </c>
       <c r="E221" s="1" t="s">
         <v>225</v>
       </c>
@@ -5337,7 +5880,9 @@
       <c r="C222" s="2">
         <v>221</v>
       </c>
-      <c r="D222" s="1"/>
+      <c r="D222" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="E222" s="1" t="s">
         <v>226</v>
       </c>
@@ -5353,7 +5898,9 @@
       <c r="C223" s="2">
         <v>222</v>
       </c>
-      <c r="D223" s="1"/>
+      <c r="D223" s="1" t="s">
+        <v>421</v>
+      </c>
       <c r="E223" s="1" t="s">
         <v>227</v>
       </c>
@@ -5369,7 +5916,9 @@
       <c r="C224" s="2">
         <v>223</v>
       </c>
-      <c r="D224" s="1"/>
+      <c r="D224" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="E224" s="3" t="s">
         <v>228</v>
       </c>
@@ -5385,7 +5934,9 @@
       <c r="C225" s="2">
         <v>224</v>
       </c>
-      <c r="D225" s="1"/>
+      <c r="D225" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="E225" s="1" t="s">
         <v>229</v>
       </c>
@@ -5401,7 +5952,9 @@
       <c r="C226" s="2">
         <v>225</v>
       </c>
-      <c r="D226" s="1"/>
+      <c r="D226" s="1" t="s">
+        <v>424</v>
+      </c>
       <c r="E226" s="1" t="s">
         <v>230</v>
       </c>
@@ -5417,7 +5970,9 @@
       <c r="C227" s="2">
         <v>226</v>
       </c>
-      <c r="D227" s="1"/>
+      <c r="D227" s="1" t="s">
+        <v>425</v>
+      </c>
       <c r="E227" s="1" t="s">
         <v>232</v>
       </c>
@@ -5433,7 +5988,9 @@
       <c r="C228" s="2">
         <v>227</v>
       </c>
-      <c r="D228" s="1"/>
+      <c r="D228" s="1" t="s">
+        <v>426</v>
+      </c>
       <c r="E228" s="1" t="s">
         <v>233</v>
       </c>
@@ -5449,7 +6006,9 @@
       <c r="C229" s="2">
         <v>228</v>
       </c>
-      <c r="D229" s="1"/>
+      <c r="D229" s="1" t="s">
+        <v>427</v>
+      </c>
       <c r="E229" s="1" t="s">
         <v>234</v>
       </c>
@@ -5465,7 +6024,9 @@
       <c r="C230" s="2">
         <v>229</v>
       </c>
-      <c r="D230" s="1"/>
+      <c r="D230" s="1" t="s">
+        <v>428</v>
+      </c>
       <c r="E230" s="1" t="s">
         <v>236</v>
       </c>
@@ -5481,7 +6042,9 @@
       <c r="C231" s="2">
         <v>230</v>
       </c>
-      <c r="D231" s="1"/>
+      <c r="D231" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="E231" s="1" t="s">
         <v>237</v>
       </c>
@@ -5497,7 +6060,9 @@
       <c r="C232" s="2">
         <v>231</v>
       </c>
-      <c r="D232" s="1"/>
+      <c r="D232" s="1" t="s">
+        <v>430</v>
+      </c>
       <c r="E232" s="1" t="s">
         <v>238</v>
       </c>
@@ -5513,7 +6078,9 @@
       <c r="C233" s="2">
         <v>232</v>
       </c>
-      <c r="D233" s="1"/>
+      <c r="D233" s="1" t="s">
+        <v>428</v>
+      </c>
       <c r="E233" s="1" t="s">
         <v>236</v>
       </c>
@@ -5529,7 +6096,9 @@
       <c r="C234" s="2">
         <v>233</v>
       </c>
-      <c r="D234" s="1"/>
+      <c r="D234" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="E234" s="1" t="s">
         <v>237</v>
       </c>
@@ -5545,7 +6114,9 @@
       <c r="C235" s="2">
         <v>234</v>
       </c>
-      <c r="D235" s="1"/>
+      <c r="D235" s="1" t="s">
+        <v>430</v>
+      </c>
       <c r="E235" s="1" t="s">
         <v>238</v>
       </c>
@@ -5561,7 +6132,9 @@
       <c r="C236" s="2">
         <v>235</v>
       </c>
-      <c r="D236" s="1"/>
+      <c r="D236" s="1" t="s">
+        <v>435</v>
+      </c>
       <c r="E236" s="1" t="s">
         <v>241</v>
       </c>
@@ -5577,7 +6150,9 @@
       <c r="C237" s="2">
         <v>236</v>
       </c>
-      <c r="D237" s="1"/>
+      <c r="D237" s="1" t="s">
+        <v>434</v>
+      </c>
       <c r="E237" s="1" t="s">
         <v>242</v>
       </c>
@@ -5593,7 +6168,9 @@
       <c r="C238" s="2">
         <v>237</v>
       </c>
-      <c r="D238" s="1"/>
+      <c r="D238" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="E238" s="1" t="s">
         <v>243</v>
       </c>
@@ -5609,7 +6186,9 @@
       <c r="C239" s="2">
         <v>238</v>
       </c>
-      <c r="D239" s="1"/>
+      <c r="D239" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="E239" s="1" t="s">
         <v>244</v>
       </c>
@@ -5625,7 +6204,9 @@
       <c r="C240" s="2">
         <v>239</v>
       </c>
-      <c r="D240" s="1"/>
+      <c r="D240" s="1" t="s">
+        <v>433</v>
+      </c>
       <c r="E240" s="1" t="s">
         <v>245</v>
       </c>
@@ -5641,7 +6222,9 @@
       <c r="C241" s="2">
         <v>240</v>
       </c>
-      <c r="D241" s="1"/>
+      <c r="D241" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="E241" s="1" t="s">
         <v>247</v>
       </c>
@@ -5657,7 +6240,9 @@
       <c r="C242" s="2">
         <v>241</v>
       </c>
-      <c r="D242" s="1"/>
+      <c r="D242" s="1" t="s">
+        <v>436</v>
+      </c>
       <c r="E242" s="1" t="s">
         <v>248</v>
       </c>
@@ -5673,7 +6258,9 @@
       <c r="C243" s="2">
         <v>242</v>
       </c>
-      <c r="D243" s="1"/>
+      <c r="D243" s="1" t="s">
+        <v>438</v>
+      </c>
       <c r="E243" s="1" t="s">
         <v>249</v>
       </c>
@@ -5689,7 +6276,9 @@
       <c r="C244" s="2">
         <v>243</v>
       </c>
-      <c r="D244" s="1"/>
+      <c r="D244" s="1" t="s">
+        <v>439</v>
+      </c>
       <c r="E244" s="1" t="s">
         <v>250</v>
       </c>
@@ -5705,7 +6294,9 @@
       <c r="C245" s="2">
         <v>244</v>
       </c>
-      <c r="D245" s="1"/>
+      <c r="D245" s="1" t="s">
+        <v>440</v>
+      </c>
       <c r="E245" s="1" t="s">
         <v>251</v>
       </c>
@@ -5721,7 +6312,9 @@
       <c r="C246" s="2">
         <v>245</v>
       </c>
-      <c r="D246" s="1"/>
+      <c r="D246" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="E246" s="1" t="s">
         <v>252</v>
       </c>
@@ -5737,7 +6330,9 @@
       <c r="C247" s="2">
         <v>246</v>
       </c>
-      <c r="D247" s="1"/>
+      <c r="D247" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="E247" s="1" t="s">
         <v>254</v>
       </c>
@@ -5753,7 +6348,9 @@
       <c r="C248" s="2">
         <v>247</v>
       </c>
-      <c r="D248" s="1"/>
+      <c r="D248" s="1" t="s">
+        <v>443</v>
+      </c>
       <c r="E248" s="1" t="s">
         <v>255</v>
       </c>
@@ -5769,7 +6366,9 @@
       <c r="C249" s="2">
         <v>248</v>
       </c>
-      <c r="D249" s="1"/>
+      <c r="D249" s="1" t="s">
+        <v>444</v>
+      </c>
       <c r="E249" s="1" t="s">
         <v>256</v>
       </c>
@@ -5785,7 +6384,9 @@
       <c r="C250" s="2">
         <v>249</v>
       </c>
-      <c r="D250" s="1"/>
+      <c r="D250" s="1" t="s">
+        <v>445</v>
+      </c>
       <c r="E250" s="1" t="s">
         <v>257</v>
       </c>
@@ -5801,7 +6402,9 @@
       <c r="C251" s="2">
         <v>250</v>
       </c>
-      <c r="D251" s="1"/>
+      <c r="D251" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="E251" s="1" t="s">
         <v>259</v>
       </c>
@@ -5817,7 +6420,9 @@
       <c r="C252" s="2">
         <v>251</v>
       </c>
-      <c r="D252" s="1"/>
+      <c r="D252" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="E252" s="1" t="s">
         <v>260</v>
       </c>
@@ -5833,7 +6438,9 @@
       <c r="C253" s="2">
         <v>252</v>
       </c>
-      <c r="D253" s="1"/>
+      <c r="D253" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="E253" s="1" t="s">
         <v>261</v>
       </c>
@@ -5849,7 +6456,9 @@
       <c r="C254" s="2">
         <v>253</v>
       </c>
-      <c r="D254" s="1"/>
+      <c r="D254" s="1" t="s">
+        <v>450</v>
+      </c>
       <c r="E254" s="1" t="s">
         <v>262</v>
       </c>
@@ -5865,7 +6474,9 @@
       <c r="C255" s="2">
         <v>254</v>
       </c>
-      <c r="D255" s="1"/>
+      <c r="D255" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="E255" s="1" t="s">
         <v>263</v>
       </c>
@@ -5881,7 +6492,9 @@
       <c r="C256" s="2">
         <v>255</v>
       </c>
-      <c r="D256" s="1"/>
+      <c r="D256" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="E256" s="1" t="s">
         <v>29</v>
       </c>
@@ -5897,7 +6510,9 @@
       <c r="C257" s="2">
         <v>256</v>
       </c>
-      <c r="D257" s="1"/>
+      <c r="D257" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="E257" s="1" t="s">
         <v>28</v>
       </c>
@@ -5913,7 +6528,9 @@
       <c r="C258" s="2">
         <v>257</v>
       </c>
-      <c r="D258" s="1"/>
+      <c r="D258" s="1" t="s">
+        <v>451</v>
+      </c>
       <c r="E258" s="1" t="s">
         <v>266</v>
       </c>
@@ -5929,7 +6546,9 @@
       <c r="C259" s="2">
         <v>258</v>
       </c>
-      <c r="D259" s="1"/>
+      <c r="D259" s="1" t="s">
+        <v>452</v>
+      </c>
       <c r="E259" s="1" t="s">
         <v>267</v>
       </c>
@@ -5945,7 +6564,9 @@
       <c r="C260" s="2">
         <v>259</v>
       </c>
-      <c r="D260" s="1"/>
+      <c r="D260" s="1" t="s">
+        <v>453</v>
+      </c>
       <c r="E260" s="1" t="s">
         <v>268</v>
       </c>
@@ -5961,7 +6582,9 @@
       <c r="C261" s="2">
         <v>260</v>
       </c>
-      <c r="D261" s="1"/>
+      <c r="D261" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="E261" s="1" t="s">
         <v>269</v>
       </c>
@@ -5977,7 +6600,9 @@
       <c r="C262" s="2">
         <v>261</v>
       </c>
-      <c r="D262" s="1"/>
+      <c r="D262" s="1" t="s">
+        <v>455</v>
+      </c>
       <c r="E262" s="1" t="s">
         <v>270</v>
       </c>
@@ -5993,7 +6618,9 @@
       <c r="C263" s="2">
         <v>262</v>
       </c>
-      <c r="D263" s="1"/>
+      <c r="D263" s="1" t="s">
+        <v>456</v>
+      </c>
       <c r="E263" s="1" t="s">
         <v>271</v>
       </c>
@@ -6009,7 +6636,9 @@
       <c r="C264" s="2">
         <v>263</v>
       </c>
-      <c r="D264" s="1"/>
+      <c r="D264" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="E264" s="1" t="s">
         <v>29</v>
       </c>
@@ -6025,7 +6654,9 @@
       <c r="C265" s="2">
         <v>264</v>
       </c>
-      <c r="D265" s="1"/>
+      <c r="D265" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="E265" s="1" t="s">
         <v>28</v>
       </c>
@@ -6041,7 +6672,9 @@
       <c r="C266" s="2">
         <v>265</v>
       </c>
-      <c r="D266" s="1"/>
+      <c r="D266" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="E266" s="1" t="s">
         <v>29</v>
       </c>
@@ -6057,7 +6690,9 @@
       <c r="C267" s="2">
         <v>266</v>
       </c>
-      <c r="D267" s="1"/>
+      <c r="D267" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="E267" s="1" t="s">
         <v>28</v>
       </c>
@@ -6073,7 +6708,9 @@
       <c r="C268" s="2">
         <v>267</v>
       </c>
-      <c r="D268" s="1"/>
+      <c r="D268" s="1" t="s">
+        <v>457</v>
+      </c>
       <c r="E268" s="1" t="s">
         <v>275</v>
       </c>
@@ -6089,7 +6726,9 @@
       <c r="C269" s="2">
         <v>268</v>
       </c>
-      <c r="D269" s="1"/>
+      <c r="D269" s="1" t="s">
+        <v>458</v>
+      </c>
       <c r="E269" s="1" t="s">
         <v>276</v>
       </c>
@@ -6105,7 +6744,9 @@
       <c r="C270" s="2">
         <v>269</v>
       </c>
-      <c r="D270" s="1"/>
+      <c r="D270" s="1" t="s">
+        <v>459</v>
+      </c>
       <c r="E270" s="1" t="s">
         <v>277</v>
       </c>
@@ -6121,7 +6762,9 @@
       <c r="C271" s="2">
         <v>270</v>
       </c>
-      <c r="D271" s="1"/>
+      <c r="D271" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="E271" s="1" t="s">
         <v>278</v>
       </c>
@@ -6137,7 +6780,9 @@
       <c r="C272" s="2">
         <v>271</v>
       </c>
-      <c r="D272" s="1"/>
+      <c r="D272" s="1" t="s">
+        <v>457</v>
+      </c>
       <c r="E272" s="1" t="s">
         <v>275</v>
       </c>
@@ -6153,7 +6798,9 @@
       <c r="C273" s="2">
         <v>272</v>
       </c>
-      <c r="D273" s="1"/>
+      <c r="D273" s="1" t="s">
+        <v>458</v>
+      </c>
       <c r="E273" s="1" t="s">
         <v>276</v>
       </c>
@@ -6169,7 +6816,9 @@
       <c r="C274" s="2">
         <v>273</v>
       </c>
-      <c r="D274" s="1"/>
+      <c r="D274" s="1" t="s">
+        <v>459</v>
+      </c>
       <c r="E274" s="1" t="s">
         <v>277</v>
       </c>
@@ -6185,7 +6834,9 @@
       <c r="C275" s="2">
         <v>274</v>
       </c>
-      <c r="D275" s="1"/>
+      <c r="D275" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="E275" s="1" t="s">
         <v>278</v>
       </c>
@@ -6201,7 +6852,9 @@
       <c r="C276" s="2">
         <v>275</v>
       </c>
-      <c r="D276" s="1"/>
+      <c r="D276" s="1" t="s">
+        <v>457</v>
+      </c>
       <c r="E276" s="1" t="s">
         <v>281</v>
       </c>
@@ -6217,7 +6870,9 @@
       <c r="C277" s="2">
         <v>276</v>
       </c>
-      <c r="D277" s="1"/>
+      <c r="D277" s="1" t="s">
+        <v>458</v>
+      </c>
       <c r="E277" s="1" t="s">
         <v>282</v>
       </c>
@@ -6233,7 +6888,9 @@
       <c r="C278" s="2">
         <v>277</v>
       </c>
-      <c r="D278" s="1"/>
+      <c r="D278" s="1" t="s">
+        <v>459</v>
+      </c>
       <c r="E278" s="1" t="s">
         <v>277</v>
       </c>
@@ -6249,7 +6906,9 @@
       <c r="C279" s="2">
         <v>278</v>
       </c>
-      <c r="D279" s="1"/>
+      <c r="D279" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="E279" s="1" t="s">
         <v>278</v>
       </c>
@@ -6265,7 +6924,9 @@
       <c r="C280" s="2">
         <v>279</v>
       </c>
-      <c r="D280" s="1"/>
+      <c r="D280" s="1" t="s">
+        <v>461</v>
+      </c>
       <c r="E280" s="1" t="s">
         <v>284</v>
       </c>
@@ -6281,7 +6942,9 @@
       <c r="C281" s="2">
         <v>280</v>
       </c>
-      <c r="D281" s="1"/>
+      <c r="D281" s="1" t="s">
+        <v>462</v>
+      </c>
       <c r="E281" s="1" t="s">
         <v>285</v>
       </c>
@@ -6297,7 +6960,9 @@
       <c r="C282" s="2">
         <v>281</v>
       </c>
-      <c r="D282" s="1"/>
+      <c r="D282" s="1" t="s">
+        <v>463</v>
+      </c>
       <c r="E282" s="1" t="s">
         <v>286</v>
       </c>
@@ -6313,7 +6978,9 @@
       <c r="C283" s="2">
         <v>282</v>
       </c>
-      <c r="D283" s="1"/>
+      <c r="D283" s="1" t="s">
+        <v>464</v>
+      </c>
       <c r="E283" s="1" t="s">
         <v>287</v>
       </c>
@@ -6329,7 +6996,9 @@
       <c r="C284" s="2">
         <v>283</v>
       </c>
-      <c r="D284" s="1"/>
+      <c r="D284" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="E284" s="1" t="s">
         <v>288</v>
       </c>
@@ -6345,7 +7014,9 @@
       <c r="C285" s="2">
         <v>284</v>
       </c>
-      <c r="D285" s="1"/>
+      <c r="D285" s="1" t="s">
+        <v>466</v>
+      </c>
       <c r="E285" s="1" t="s">
         <v>289</v>
       </c>
@@ -6361,7 +7032,9 @@
       <c r="C286" s="2">
         <v>285</v>
       </c>
-      <c r="D286" s="1"/>
+      <c r="D286" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="E286" s="1" t="s">
         <v>290</v>
       </c>
@@ -6391,7 +7064,9 @@
       <c r="C288" s="2">
         <v>287</v>
       </c>
-      <c r="D288" s="1"/>
+      <c r="D288" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="E288" s="1" t="s">
         <v>293</v>
       </c>
@@ -6407,7 +7082,9 @@
       <c r="C289" s="2">
         <v>288</v>
       </c>
-      <c r="D289" s="1"/>
+      <c r="D289" s="1" t="s">
+        <v>468</v>
+      </c>
       <c r="E289" s="1" t="s">
         <v>294</v>
       </c>
@@ -6423,7 +7100,9 @@
       <c r="C290" s="2">
         <v>289</v>
       </c>
-      <c r="D290" s="1"/>
+      <c r="D290" s="1" t="s">
+        <v>469</v>
+      </c>
       <c r="E290" s="1" t="s">
         <v>295</v>
       </c>
@@ -6439,7 +7118,9 @@
       <c r="C291" s="2">
         <v>290</v>
       </c>
-      <c r="D291" s="1"/>
+      <c r="D291" s="1" t="s">
+        <v>470</v>
+      </c>
       <c r="E291" s="1" t="s">
         <v>296</v>
       </c>
@@ -6455,7 +7136,9 @@
       <c r="C292" s="2">
         <v>291</v>
       </c>
-      <c r="D292" s="1"/>
+      <c r="D292" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="E292" s="1" t="s">
         <v>290</v>
       </c>
@@ -6485,7 +7168,9 @@
       <c r="C294" s="2">
         <v>293</v>
       </c>
-      <c r="D294" s="1"/>
+      <c r="D294" s="1" t="s">
+        <v>471</v>
+      </c>
       <c r="E294" s="1" t="s">
         <v>298</v>
       </c>
@@ -6501,7 +7186,9 @@
       <c r="C295" s="2">
         <v>294</v>
       </c>
-      <c r="D295" s="1"/>
+      <c r="D295" s="1" t="s">
+        <v>464</v>
+      </c>
       <c r="E295" s="1" t="s">
         <v>287</v>
       </c>
@@ -6517,7 +7204,9 @@
       <c r="C296" s="2">
         <v>295</v>
       </c>
-      <c r="D296" s="1"/>
+      <c r="D296" s="1" t="s">
+        <v>472</v>
+      </c>
       <c r="E296" s="1" t="s">
         <v>299</v>
       </c>
@@ -6533,7 +7222,9 @@
       <c r="C297" s="2">
         <v>296</v>
       </c>
-      <c r="D297" s="1"/>
+      <c r="D297" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E297" s="1" t="s">
         <v>300</v>
       </c>
@@ -6549,7 +7240,9 @@
       <c r="C298" s="2">
         <v>297</v>
       </c>
-      <c r="D298" s="1"/>
+      <c r="D298" s="1" t="s">
+        <v>474</v>
+      </c>
       <c r="E298" s="1" t="s">
         <v>301</v>
       </c>
@@ -6565,7 +7258,9 @@
       <c r="C299" s="2">
         <v>298</v>
       </c>
-      <c r="D299" s="1"/>
+      <c r="D299" s="1" t="s">
+        <v>475</v>
+      </c>
       <c r="E299" s="1" t="s">
         <v>302</v>
       </c>
@@ -6581,7 +7276,9 @@
       <c r="C300" s="2">
         <v>299</v>
       </c>
-      <c r="D300" s="1"/>
+      <c r="D300" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="E300" s="1" t="s">
         <v>303</v>
       </c>
@@ -6597,7 +7294,9 @@
       <c r="C301" s="2">
         <v>300</v>
       </c>
-      <c r="D301" s="1"/>
+      <c r="D301" s="1" t="s">
+        <v>477</v>
+      </c>
       <c r="E301" s="1" t="s">
         <v>304</v>
       </c>
@@ -6613,7 +7312,9 @@
       <c r="C302" s="2">
         <v>301</v>
       </c>
-      <c r="D302" s="1"/>
+      <c r="D302" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="E302" s="1" t="s">
         <v>305</v>
       </c>
@@ -6629,7 +7330,9 @@
       <c r="C303" s="2">
         <v>302</v>
       </c>
-      <c r="D303" s="1"/>
+      <c r="D303" s="1" t="s">
+        <v>479</v>
+      </c>
       <c r="E303" s="1" t="s">
         <v>306</v>
       </c>
@@ -6645,7 +7348,9 @@
       <c r="C304" s="2">
         <v>303</v>
       </c>
-      <c r="D304" s="1"/>
+      <c r="D304" s="1" t="s">
+        <v>480</v>
+      </c>
       <c r="E304" s="1" t="s">
         <v>307</v>
       </c>
@@ -6661,7 +7366,9 @@
       <c r="C305" s="2">
         <v>304</v>
       </c>
-      <c r="D305" s="1"/>
+      <c r="D305" s="1" t="s">
+        <v>481</v>
+      </c>
       <c r="E305" s="1" t="s">
         <v>308</v>
       </c>
@@ -6677,7 +7384,9 @@
       <c r="C306" s="2">
         <v>305</v>
       </c>
-      <c r="D306" s="1"/>
+      <c r="D306" s="1" t="s">
+        <v>471</v>
+      </c>
       <c r="E306" s="1" t="s">
         <v>298</v>
       </c>
@@ -6693,7 +7402,9 @@
       <c r="C307" s="2">
         <v>306</v>
       </c>
-      <c r="D307" s="1"/>
+      <c r="D307" s="1" t="s">
+        <v>464</v>
+      </c>
       <c r="E307" s="1" t="s">
         <v>287</v>
       </c>
@@ -6709,7 +7420,9 @@
       <c r="C308" s="2">
         <v>307</v>
       </c>
-      <c r="D308" s="1"/>
+      <c r="D308" s="1" t="s">
+        <v>472</v>
+      </c>
       <c r="E308" s="1" t="s">
         <v>299</v>
       </c>
@@ -6725,7 +7438,9 @@
       <c r="C309" s="2">
         <v>308</v>
       </c>
-      <c r="D309" s="1"/>
+      <c r="D309" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E309" s="1" t="s">
         <v>300</v>
       </c>
@@ -6741,7 +7456,9 @@
       <c r="C310" s="2">
         <v>309</v>
       </c>
-      <c r="D310" s="1"/>
+      <c r="D310" s="1" t="s">
+        <v>474</v>
+      </c>
       <c r="E310" s="1" t="s">
         <v>301</v>
       </c>
@@ -6757,7 +7474,9 @@
       <c r="C311" s="2">
         <v>310</v>
       </c>
-      <c r="D311" s="1"/>
+      <c r="D311" s="1" t="s">
+        <v>475</v>
+      </c>
       <c r="E311" s="1" t="s">
         <v>302</v>
       </c>
@@ -6773,7 +7492,9 @@
       <c r="C312" s="2">
         <v>311</v>
       </c>
-      <c r="D312" s="1"/>
+      <c r="D312" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="E312" s="1" t="s">
         <v>303</v>
       </c>
@@ -6789,7 +7510,9 @@
       <c r="C313" s="2">
         <v>312</v>
       </c>
-      <c r="D313" s="1"/>
+      <c r="D313" s="1" t="s">
+        <v>477</v>
+      </c>
       <c r="E313" s="1" t="s">
         <v>304</v>
       </c>
@@ -6805,7 +7528,9 @@
       <c r="C314" s="2">
         <v>313</v>
       </c>
-      <c r="D314" s="1"/>
+      <c r="D314" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="E314" s="1" t="s">
         <v>305</v>
       </c>
@@ -6821,7 +7546,9 @@
       <c r="C315" s="2">
         <v>314</v>
       </c>
-      <c r="D315" s="1"/>
+      <c r="D315" s="1" t="s">
+        <v>479</v>
+      </c>
       <c r="E315" s="1" t="s">
         <v>306</v>
       </c>
@@ -6837,7 +7564,9 @@
       <c r="C316" s="2">
         <v>315</v>
       </c>
-      <c r="D316" s="1"/>
+      <c r="D316" s="1" t="s">
+        <v>480</v>
+      </c>
       <c r="E316" s="1" t="s">
         <v>307</v>
       </c>
@@ -6853,7 +7582,9 @@
       <c r="C317" s="2">
         <v>316</v>
       </c>
-      <c r="D317" s="1"/>
+      <c r="D317" s="1" t="s">
+        <v>481</v>
+      </c>
       <c r="E317" s="1" t="s">
         <v>308</v>
       </c>
@@ -6869,7 +7600,9 @@
       <c r="C318" s="2">
         <v>317</v>
       </c>
-      <c r="D318" s="1"/>
+      <c r="D318" s="1" t="s">
+        <v>512</v>
+      </c>
       <c r="E318" s="1" t="s">
         <v>311</v>
       </c>
@@ -6885,7 +7618,9 @@
       <c r="C319" s="2">
         <v>318</v>
       </c>
-      <c r="D319" s="1"/>
+      <c r="D319" s="1" t="s">
+        <v>513</v>
+      </c>
       <c r="E319" s="1" t="s">
         <v>312</v>
       </c>
@@ -6901,7 +7636,9 @@
       <c r="C320" s="2">
         <v>319</v>
       </c>
-      <c r="D320" s="1"/>
+      <c r="D320" s="1" t="s">
+        <v>514</v>
+      </c>
       <c r="E320" s="1" t="s">
         <v>313</v>
       </c>
@@ -7375,7 +8112,9 @@
       <c r="C350" s="2">
         <v>349</v>
       </c>
-      <c r="D350" s="1"/>
+      <c r="D350" s="1" t="s">
+        <v>507</v>
+      </c>
       <c r="E350" s="1" t="s">
         <v>340</v>
       </c>
@@ -7391,7 +8130,9 @@
       <c r="C351" s="2">
         <v>350</v>
       </c>
-      <c r="D351" s="1"/>
+      <c r="D351" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="E351" s="1" t="s">
         <v>341</v>
       </c>
@@ -7407,7 +8148,9 @@
       <c r="C352" s="2">
         <v>351</v>
       </c>
-      <c r="D352" s="1"/>
+      <c r="D352" s="1" t="s">
+        <v>511</v>
+      </c>
       <c r="E352" s="1" t="s">
         <v>342</v>
       </c>
@@ -7423,7 +8166,9 @@
       <c r="C353" s="2">
         <v>352</v>
       </c>
-      <c r="D353" s="1"/>
+      <c r="D353" s="1" t="s">
+        <v>509</v>
+      </c>
       <c r="E353" s="1" t="s">
         <v>343</v>
       </c>
@@ -7439,7 +8184,9 @@
       <c r="C354" s="2">
         <v>353</v>
       </c>
-      <c r="D354" s="1"/>
+      <c r="D354" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="E354" s="1" t="s">
         <v>344</v>
       </c>
@@ -7455,7 +8202,9 @@
       <c r="C355" s="2">
         <v>354</v>
       </c>
-      <c r="D355" s="1"/>
+      <c r="D355" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="E355" s="1" t="s">
         <v>345</v>
       </c>
@@ -7471,7 +8220,9 @@
       <c r="C356" s="2">
         <v>355</v>
       </c>
-      <c r="D356" s="1"/>
+      <c r="D356" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="E356" s="1" t="s">
         <v>346</v>
       </c>
@@ -7487,7 +8238,9 @@
       <c r="C357" s="2">
         <v>356</v>
       </c>
-      <c r="D357" s="1"/>
+      <c r="D357" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="E357" s="1" t="s">
         <v>347</v>
       </c>
@@ -7517,7 +8270,9 @@
       <c r="C359" s="2">
         <v>358</v>
       </c>
-      <c r="D359" s="1"/>
+      <c r="D359" s="1" t="s">
+        <v>500</v>
+      </c>
       <c r="E359" s="1" t="s">
         <v>349</v>
       </c>
@@ -7533,7 +8288,9 @@
       <c r="C360" s="2">
         <v>359</v>
       </c>
-      <c r="D360" s="1"/>
+      <c r="D360" s="1" t="s">
+        <v>501</v>
+      </c>
       <c r="E360" s="1" t="s">
         <v>350</v>
       </c>
@@ -7549,7 +8306,9 @@
       <c r="C361" s="2">
         <v>360</v>
       </c>
-      <c r="D361" s="1"/>
+      <c r="D361" s="1" t="s">
+        <v>502</v>
+      </c>
       <c r="E361" s="1" t="s">
         <v>351</v>
       </c>
@@ -7565,7 +8324,9 @@
       <c r="C362" s="2">
         <v>361</v>
       </c>
-      <c r="D362" s="1"/>
+      <c r="D362" s="1" t="s">
+        <v>503</v>
+      </c>
       <c r="E362" s="1" t="s">
         <v>352</v>
       </c>
@@ -7581,7 +8342,9 @@
       <c r="C363" s="2">
         <v>362</v>
       </c>
-      <c r="D363" s="4"/>
+      <c r="D363" s="1" t="s">
+        <v>504</v>
+      </c>
       <c r="E363" s="4" t="s">
         <v>353</v>
       </c>
@@ -7597,7 +8360,9 @@
       <c r="C364" s="2">
         <v>363</v>
       </c>
-      <c r="D364" s="4"/>
+      <c r="D364" s="1" t="s">
+        <v>505</v>
+      </c>
       <c r="E364" s="4" t="s">
         <v>354</v>
       </c>
@@ -7613,7 +8378,9 @@
       <c r="C365" s="2">
         <v>364</v>
       </c>
-      <c r="D365" s="4"/>
+      <c r="D365" s="1" t="s">
+        <v>506</v>
+      </c>
       <c r="E365" s="4" t="s">
         <v>355</v>
       </c>
@@ -7629,7 +8396,9 @@
       <c r="C366" s="2">
         <v>365</v>
       </c>
-      <c r="D366" s="4"/>
+      <c r="D366" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="E366" s="4" t="s">
         <v>346</v>
       </c>
@@ -7645,7 +8414,9 @@
       <c r="C367" s="2">
         <v>366</v>
       </c>
-      <c r="D367" s="4"/>
+      <c r="D367" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="E367" s="4" t="s">
         <v>347</v>
       </c>
@@ -7675,7 +8446,9 @@
       <c r="C369" s="2">
         <v>368</v>
       </c>
-      <c r="D369" s="4"/>
+      <c r="D369" s="1" t="s">
+        <v>482</v>
+      </c>
       <c r="E369" s="4" t="s">
         <v>357</v>
       </c>
@@ -7691,7 +8464,9 @@
       <c r="C370" s="2">
         <v>369</v>
       </c>
-      <c r="D370" s="4"/>
+      <c r="D370" s="1" t="s">
+        <v>483</v>
+      </c>
       <c r="E370" s="4" t="s">
         <v>358</v>
       </c>
@@ -7707,7 +8482,9 @@
       <c r="C371" s="2">
         <v>370</v>
       </c>
-      <c r="D371" s="4"/>
+      <c r="D371" s="1" t="s">
+        <v>484</v>
+      </c>
       <c r="E371" s="4" t="s">
         <v>359</v>
       </c>
@@ -7723,7 +8500,9 @@
       <c r="C372" s="2">
         <v>371</v>
       </c>
-      <c r="D372" s="4"/>
+      <c r="D372" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="E372" s="4" t="s">
         <v>290</v>
       </c>
@@ -7753,7 +8532,9 @@
       <c r="C374" s="2">
         <v>373</v>
       </c>
-      <c r="D374" s="4"/>
+      <c r="D374" s="1" t="s">
+        <v>361</v>
+      </c>
       <c r="E374" s="4" t="s">
         <v>361</v>
       </c>
@@ -7769,7 +8550,9 @@
       <c r="C375" s="2">
         <v>374</v>
       </c>
-      <c r="D375" s="4"/>
+      <c r="D375" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="E375" s="4" t="s">
         <v>362</v>
       </c>
@@ -7785,7 +8568,9 @@
       <c r="C376" s="2">
         <v>375</v>
       </c>
-      <c r="D376" s="4"/>
+      <c r="D376" s="1" t="s">
+        <v>363</v>
+      </c>
       <c r="E376" s="4" t="s">
         <v>363</v>
       </c>
@@ -7801,7 +8586,9 @@
       <c r="C377" s="2">
         <v>376</v>
       </c>
-      <c r="D377" s="4"/>
+      <c r="D377" s="1" t="s">
+        <v>364</v>
+      </c>
       <c r="E377" s="4" t="s">
         <v>364</v>
       </c>
@@ -7817,7 +8604,9 @@
       <c r="C378" s="2">
         <v>377</v>
       </c>
-      <c r="D378" s="4"/>
+      <c r="D378" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="E378" s="4" t="s">
         <v>365</v>
       </c>
@@ -7833,7 +8622,9 @@
       <c r="C379" s="2">
         <v>378</v>
       </c>
-      <c r="D379" s="4"/>
+      <c r="D379" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="E379" s="4" t="s">
         <v>366</v>
       </c>
@@ -7849,7 +8640,9 @@
       <c r="C380" s="2">
         <v>379</v>
       </c>
-      <c r="D380" s="4"/>
+      <c r="D380" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="E380" s="4" t="s">
         <v>367</v>
       </c>
@@ -7865,7 +8658,9 @@
       <c r="C381" s="2">
         <v>380</v>
       </c>
-      <c r="D381" s="4"/>
+      <c r="D381" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E381" s="4" t="s">
         <v>290</v>
       </c>
@@ -9281,7 +10076,9 @@
       <c r="C460" s="2">
         <v>459</v>
       </c>
-      <c r="D460" s="4"/>
+      <c r="D460" s="1" t="s">
+        <v>485</v>
+      </c>
       <c r="E460" s="4" t="s">
         <v>370</v>
       </c>
@@ -9297,7 +10094,9 @@
       <c r="C461" s="2">
         <v>460</v>
       </c>
-      <c r="D461" s="4"/>
+      <c r="D461" s="1" t="s">
+        <v>486</v>
+      </c>
       <c r="E461" s="4" t="s">
         <v>371</v>
       </c>
@@ -9313,7 +10112,9 @@
       <c r="C462" s="2">
         <v>461</v>
       </c>
-      <c r="D462" s="4"/>
+      <c r="D462" s="1" t="s">
+        <v>487</v>
+      </c>
       <c r="E462" s="4" t="s">
         <v>372</v>
       </c>
@@ -9329,7 +10130,9 @@
       <c r="C463" s="2">
         <v>462</v>
       </c>
-      <c r="D463" s="4"/>
+      <c r="D463" s="1" t="s">
+        <v>488</v>
+      </c>
       <c r="E463" s="4" t="s">
         <v>373</v>
       </c>
@@ -9345,7 +10148,9 @@
       <c r="C464" s="2">
         <v>463</v>
       </c>
-      <c r="D464" s="4"/>
+      <c r="D464" s="1" t="s">
+        <v>489</v>
+      </c>
       <c r="E464" s="4" t="s">
         <v>374</v>
       </c>
@@ -9361,7 +10166,9 @@
       <c r="C465" s="2">
         <v>464</v>
       </c>
-      <c r="D465" s="4"/>
+      <c r="D465" s="1" t="s">
+        <v>490</v>
+      </c>
       <c r="E465" s="4" t="s">
         <v>375</v>
       </c>
@@ -9377,7 +10184,9 @@
       <c r="C466" s="2">
         <v>465</v>
       </c>
-      <c r="D466" s="4"/>
+      <c r="D466" s="1" t="s">
+        <v>491</v>
+      </c>
       <c r="E466" s="4" t="s">
         <v>376</v>
       </c>
@@ -9393,7 +10202,9 @@
       <c r="C467" s="2">
         <v>466</v>
       </c>
-      <c r="D467" s="4"/>
+      <c r="D467" s="1" t="s">
+        <v>492</v>
+      </c>
       <c r="E467" s="4" t="s">
         <v>377</v>
       </c>
@@ -9409,7 +10220,9 @@
       <c r="C468" s="2">
         <v>467</v>
       </c>
-      <c r="D468" s="4"/>
+      <c r="D468" s="1" t="s">
+        <v>493</v>
+      </c>
       <c r="E468" s="4" t="s">
         <v>378</v>
       </c>
@@ -9425,7 +10238,9 @@
       <c r="C469" s="2">
         <v>468</v>
       </c>
-      <c r="D469" s="4"/>
+      <c r="D469" s="1" t="s">
+        <v>494</v>
+      </c>
       <c r="E469" s="4" t="s">
         <v>379</v>
       </c>
@@ -9441,7 +10256,9 @@
       <c r="C470" s="2">
         <v>469</v>
       </c>
-      <c r="D470" s="4"/>
+      <c r="D470" s="1" t="s">
+        <v>495</v>
+      </c>
       <c r="E470" s="4" t="s">
         <v>380</v>
       </c>
@@ -9457,7 +10274,9 @@
       <c r="C471" s="2">
         <v>470</v>
       </c>
-      <c r="D471" s="4"/>
+      <c r="D471" s="1" t="s">
+        <v>496</v>
+      </c>
       <c r="E471" s="4" t="s">
         <v>381</v>
       </c>
@@ -9473,7 +10292,9 @@
       <c r="C472" s="2">
         <v>471</v>
       </c>
-      <c r="D472" s="4"/>
+      <c r="D472" s="1" t="s">
+        <v>497</v>
+      </c>
       <c r="E472" s="4" t="s">
         <v>382</v>
       </c>
@@ -9489,7 +10310,9 @@
       <c r="C473" s="2">
         <v>472</v>
       </c>
-      <c r="D473" s="4"/>
+      <c r="D473" s="1" t="s">
+        <v>498</v>
+      </c>
       <c r="E473" s="4" t="s">
         <v>383</v>
       </c>
@@ -9505,7 +10328,9 @@
       <c r="C474" s="2">
         <v>473</v>
       </c>
-      <c r="D474" s="4"/>
+      <c r="D474" s="1" t="s">
+        <v>499</v>
+      </c>
       <c r="E474" s="4" t="s">
         <v>384</v>
       </c>
@@ -9521,7 +10346,9 @@
       <c r="C475" s="2">
         <v>474</v>
       </c>
-      <c r="D475" s="4"/>
+      <c r="D475" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="E475" s="4" t="s">
         <v>290</v>
       </c>
@@ -9540,6 +10367,159 @@
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
       <c r="F476" s="4"/>
+    </row>
+    <row r="477" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A477" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B477" s="2">
+        <v>1</v>
+      </c>
+      <c r="C477" s="2">
+        <v>476</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A478" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B478" s="2">
+        <v>2</v>
+      </c>
+      <c r="C478" s="2">
+        <v>477</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A479" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B479" s="2">
+        <v>3</v>
+      </c>
+      <c r="C479" s="2">
+        <v>478</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A480" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B480" s="2">
+        <v>4</v>
+      </c>
+      <c r="C480" s="2">
+        <v>479</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A481" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B481" s="2">
+        <v>5</v>
+      </c>
+      <c r="C481" s="2">
+        <v>480</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A482" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B482" s="2">
+        <v>6</v>
+      </c>
+      <c r="C482" s="2">
+        <v>481</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A483" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B483" s="2">
+        <v>7</v>
+      </c>
+      <c r="C483" s="2">
+        <v>482</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A484" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B484" s="2">
+        <v>8</v>
+      </c>
+      <c r="C484" s="2">
+        <v>483</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A485" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B485" s="2">
+        <v>9</v>
+      </c>
+      <c r="C485" s="2">
+        <v>484</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>325</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/misc/mapping.xlsx
+++ b/misc/mapping.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="18735" windowHeight="9608"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="22410" windowHeight="9608"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="1110">
   <si>
     <t>variable</t>
   </si>
@@ -1562,12 +1563,6 @@
     <t>Winning tourists confidence</t>
   </si>
   <si>
-    <t>Ensuring HHS Compliance\</t>
-  </si>
-  <si>
-    <t>Overcoming financial challenges</t>
-  </si>
-  <si>
     <t>Difficulty paying for health services</t>
   </si>
   <si>
@@ -1590,13 +1585,1780 @@
   </si>
   <si>
     <t>Difficulty in repaying existing debt</t>
+  </si>
+  <si>
+    <t>d_moved</t>
+  </si>
+  <si>
+    <t>Tax discounts</t>
+  </si>
+  <si>
+    <t>Social security benefits</t>
+  </si>
+  <si>
+    <t>Grants</t>
+  </si>
+  <si>
+    <t>No effect due to COVID</t>
+  </si>
+  <si>
+    <t>Borrowing at discounted rates</t>
+  </si>
+  <si>
+    <t>n_rcvry_preferred_incentives_rnk_1</t>
+  </si>
+  <si>
+    <t>Health related training / re-training</t>
+  </si>
+  <si>
+    <t>Professional development training / re-training</t>
+  </si>
+  <si>
+    <t>Opportunities to develop new skills</t>
+  </si>
+  <si>
+    <t>Opportunities for employment</t>
+  </si>
+  <si>
+    <t>Interest rate discounts</t>
+  </si>
+  <si>
+    <t>Extension or deferral of loan repayment periods</t>
+  </si>
+  <si>
+    <t>Counseling for dealing with mental stress</t>
+  </si>
+  <si>
+    <t>Financial challenges</t>
+  </si>
+  <si>
+    <t>Reduction in tourists</t>
+  </si>
+  <si>
+    <t>o_rcvry_chllng_trsm_revival_rnk_1</t>
+  </si>
+  <si>
+    <t>Ensuring health, hygiene, and safety standards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accurately understanding demands of source markets </t>
+  </si>
+  <si>
+    <t>m_dist_business</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Achham (अछाम)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Arghakhanchi (अर्घाखाँची)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Baglung (बागलुङ)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Baitadi (बैतडी)</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Bajhang (बझाङ)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Bajura (बाजुरा)</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Banke (बाँके)</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Bara (बारा)</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Bardiya (बर्दिया)</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Bhaktapur (भक्तपुर)</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Bhojpur (भोजपुर)</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Chitawan (चितवन)</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Dadeldhura (डडेलधुरा)</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Dailekh (दैलेख)</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Dang (दाङ)</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Darchula (दार्चुला)</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Dhading (धादिङ)</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Dhankuta (धनकुटा)</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Dhanusa (धनुषा)</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Dolakha (दोलखा)</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Dolpa (डोल्पा)</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Doti (डोटी)</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Gorkha (गोरखा)</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Gulmi (गुल्मी)</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Humla (हुम्ला)</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Ilam (इलाम)</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Jajarkot (जाजरकोट)</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Jhapa (झापा)</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Jumla (जुम्ला)</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Kailali (कैलाली)</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Kalikot (कालिकोट)</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Kanchanpur (कंचनपुर)</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Kapilbastu (कपिलवस्तु)</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Kaski (कास्की)</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Kathmandu (काठमाडौँ)</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Kavrepalanchok (काभ्रेपलान्चोक)</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Khotang (खोटाँग)</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Lalitpur (ललितपुर)</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Lamjung (लमजुङ)</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Mahottari (महोत्तरी)</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Makwanpur (मकवानपुर)</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Manang (मनाङ)</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Morang (मोरंग)</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Mugu (मुगु)</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Mustang (मुस्ताङ)</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Myagdi (म्याग्दी)</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Nawalpur (नवलपुर)</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Parasi (परासी)</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Nuwakot (नुवाकोट)</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Okhaldhunga (ओखलढुंगा)</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Palpa (पाल्पा)</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Panchthar (पांचथर)</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Parbat (पर्वत)</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Parsa (पर्सा)</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Pyuthan (प्युठान)</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Ramechhap (रामेछाप)</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Rasuwa (रसुवा)</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Rautahat (रौतहट)</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Rolpa (रोल्पा)</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Rukum East (पूर्वी रूकुम)</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Rukum West (पश्चिमी रूकुम)</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>Rupandehi (रुपन्देही)</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>Salyan (सल्यान)</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>Sankhuwasabha (संखुवासभा)</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Saptari (सप्तरी)</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Sarlahi (सर्लाही)</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>Sindhuli (सिन्धुली)</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>Sindhupalchok (सिन्धुपाल्चोक)</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Siraha (सिराहा)</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Solukhumbu (सोलुखुम्बू)</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Sunsari (सुनसरी)</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Surkhet (सुर्खेत)</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>Syangja (स्याङग्जा)</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>Tanahu (तनहुँ)</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Taplejung (ताप्लेजुंग)</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Terhathum (तेह्रथुम)</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Udayapur (उदयपुर)</t>
+  </si>
+  <si>
+    <t>m_mun_business</t>
+  </si>
+  <si>
+    <t>3801</t>
+  </si>
+  <si>
+    <t>Lalitpur Metropolitan</t>
+  </si>
+  <si>
+    <t>3802</t>
+  </si>
+  <si>
+    <t>Godawari NP</t>
+  </si>
+  <si>
+    <t>3803</t>
+  </si>
+  <si>
+    <t>Mahalaxmi NP</t>
+  </si>
+  <si>
+    <t>3804</t>
+  </si>
+  <si>
+    <t>Konjyosom</t>
+  </si>
+  <si>
+    <t>3805</t>
+  </si>
+  <si>
+    <t>Bagmati</t>
+  </si>
+  <si>
+    <t>3806</t>
+  </si>
+  <si>
+    <t>Mahankal</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>Changunarayan NP</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>Bhaktapur NP</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>Madhyapur Thimi NP</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>Suryabinayak NP</t>
+  </si>
+  <si>
+    <t>3501</t>
+  </si>
+  <si>
+    <t>Kathmandu Metropolitan</t>
+  </si>
+  <si>
+    <t>3502</t>
+  </si>
+  <si>
+    <t>Kageshwori Manohara NP</t>
+  </si>
+  <si>
+    <t>3503</t>
+  </si>
+  <si>
+    <t>Kirtipur NP</t>
+  </si>
+  <si>
+    <t>3504</t>
+  </si>
+  <si>
+    <t>Gokarneshwor NP</t>
+  </si>
+  <si>
+    <t>3505</t>
+  </si>
+  <si>
+    <t>Chandragiri NP</t>
+  </si>
+  <si>
+    <t>3506</t>
+  </si>
+  <si>
+    <t>Tokha NP</t>
+  </si>
+  <si>
+    <t>3507</t>
+  </si>
+  <si>
+    <t>Tarakeshwor NP</t>
+  </si>
+  <si>
+    <t>3508</t>
+  </si>
+  <si>
+    <t>Daksinkali NP</t>
+  </si>
+  <si>
+    <t>3509</t>
+  </si>
+  <si>
+    <t>Nagarjuna NP</t>
+  </si>
+  <si>
+    <t>3510</t>
+  </si>
+  <si>
+    <t>Budanilkantha NP</t>
+  </si>
+  <si>
+    <t>3511</t>
+  </si>
+  <si>
+    <t>Sakharapur NP</t>
+  </si>
+  <si>
+    <t>m_biz_type</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Restaurant and Bar</t>
+  </si>
+  <si>
+    <t>Travel and Tour Operator</t>
+  </si>
+  <si>
+    <t>Handicraft</t>
+  </si>
+  <si>
+    <t>Rafting</t>
+  </si>
+  <si>
+    <t>Trekking</t>
+  </si>
+  <si>
+    <t>Mountaineering</t>
+  </si>
+  <si>
+    <t>Shop/Merchandise</t>
+  </si>
+  <si>
+    <t>i_econ_stop_business</t>
+  </si>
+  <si>
+    <t>No, operations were always running</t>
+  </si>
+  <si>
+    <t>Yes, temporarily stopped operations</t>
+  </si>
+  <si>
+    <t>Yes, permanently stopped</t>
+  </si>
+  <si>
+    <t>i_econ_stop_business_how_lng</t>
+  </si>
+  <si>
+    <t>7 to 12 months</t>
+  </si>
+  <si>
+    <t>12+ months</t>
+  </si>
+  <si>
+    <t>i_covid_effect_business</t>
+  </si>
+  <si>
+    <t>Reduced volume of business</t>
+  </si>
+  <si>
+    <t>Increased COVID-19 cases in our area</t>
+  </si>
+  <si>
+    <t>Our employees were affected by COVID-19</t>
+  </si>
+  <si>
+    <t>Shortage of human resources</t>
+  </si>
+  <si>
+    <t>Supply chain disruption</t>
+  </si>
+  <si>
+    <t>Lack of access to services due to government-imposed lockdown</t>
+  </si>
+  <si>
+    <t>Lack of mobility due to government-imposed lockdown</t>
+  </si>
+  <si>
+    <t>Disagreement with partners/fallout</t>
+  </si>
+  <si>
+    <t>Lack of adequate financial resources</t>
+  </si>
+  <si>
+    <t>Our business operations were not affected at all</t>
+  </si>
+  <si>
+    <t>effects_employement</t>
+  </si>
+  <si>
+    <t>No effects</t>
+  </si>
+  <si>
+    <t>i_wrkfrc_actn_during_covid</t>
+  </si>
+  <si>
+    <t>Reduced the number of temporary workers</t>
+  </si>
+  <si>
+    <t>Reduced the number of permanent workers</t>
+  </si>
+  <si>
+    <t>Reduced working hours</t>
+  </si>
+  <si>
+    <t>Introduced rotational employment</t>
+  </si>
+  <si>
+    <t>Asked workers to take paid leave</t>
+  </si>
+  <si>
+    <t>Asked workers to take unpaid leave</t>
+  </si>
+  <si>
+    <t>Asked workers to work for reduced pay</t>
+  </si>
+  <si>
+    <t>Decreased or removed employee benefits (like perks, bonus, etc.)</t>
+  </si>
+  <si>
+    <t>Our business did not have to take any workforce-related actions during the pandemic</t>
+  </si>
+  <si>
+    <t>i_fin_effect_loan_avlblty</t>
+  </si>
+  <si>
+    <t>We took loan(s) quite easily to continue our business</t>
+  </si>
+  <si>
+    <t>We tried but could not take loans</t>
+  </si>
+  <si>
+    <t>We took loans but faced significant difficulties in taking loans</t>
+  </si>
+  <si>
+    <t>We faced difficulty in paying back existing loans</t>
+  </si>
+  <si>
+    <t>i_fin_effect_asset_lqdty</t>
+  </si>
+  <si>
+    <t>We sold some of our assets (e.g. vehicles, equipment, buildings, land)</t>
+  </si>
+  <si>
+    <t>We could not find buyers when we wanted to sell our assets</t>
+  </si>
+  <si>
+    <t>We rented out some of our assets</t>
+  </si>
+  <si>
+    <t>i_fin_effect_cost_invstmnt</t>
+  </si>
+  <si>
+    <t>We could not cover our operating costs (e.g. rent, electricity, etc.)</t>
+  </si>
+  <si>
+    <t>We cancelled or postponed our investment plans</t>
+  </si>
+  <si>
+    <t>We had made significant investments specifically targeting Visit Nepal 2020</t>
+  </si>
+  <si>
+    <t>i_geog_effect_loc_chng</t>
+  </si>
+  <si>
+    <t>We moved our business/office to a different location</t>
+  </si>
+  <si>
+    <t>We closed down some of our offices/branches</t>
+  </si>
+  <si>
+    <t>We tried to move our business/office but we couldn't</t>
+  </si>
+  <si>
+    <t>i_fin_effct_eqty_ownrshp</t>
+  </si>
+  <si>
+    <t>We sold our entire business</t>
+  </si>
+  <si>
+    <t>We tried to sell our entire business but could not find buyers</t>
+  </si>
+  <si>
+    <t>We sold some equity (ownership) of our business</t>
+  </si>
+  <si>
+    <t>We tried to sell some of our equity but could not find buyers</t>
+  </si>
+  <si>
+    <t>i_fin_effect_other</t>
+  </si>
+  <si>
+    <t>b_n_emplyes_pre_covid</t>
+  </si>
+  <si>
+    <t>Upto 10 people</t>
+  </si>
+  <si>
+    <t>11 to 30 people</t>
+  </si>
+  <si>
+    <t>31 to 50 people</t>
+  </si>
+  <si>
+    <t>51 to 100 people</t>
+  </si>
+  <si>
+    <t>More than 100 people</t>
+  </si>
+  <si>
+    <t>i_fin_revenue_chng_2020_v_2019</t>
+  </si>
+  <si>
+    <t>Revenue remained the same</t>
+  </si>
+  <si>
+    <t>Revenue became 75% of 2019</t>
+  </si>
+  <si>
+    <t>Revenue became 50% of 2019</t>
+  </si>
+  <si>
+    <t>Revenue became 25% of 2019</t>
+  </si>
+  <si>
+    <t>Revenue stopped completely</t>
+  </si>
+  <si>
+    <t>Revenue increased compared to 2019</t>
+  </si>
+  <si>
+    <t>i_wrkfrc_size_chng_2020_v_2019</t>
+  </si>
+  <si>
+    <t>Workforce size remained the same</t>
+  </si>
+  <si>
+    <t>Workforce size became 75% of 2019</t>
+  </si>
+  <si>
+    <t>Workforce size became 50% of 2019</t>
+  </si>
+  <si>
+    <t>Workforce size became 25% of 2019</t>
+  </si>
+  <si>
+    <t>Workforce size became zero</t>
+  </si>
+  <si>
+    <t>Workforce size increased compared to 2019</t>
+  </si>
+  <si>
+    <t>i_fin_savings_chng_2020_v_2019</t>
+  </si>
+  <si>
+    <t>Savings remained the same (or) unchanged</t>
+  </si>
+  <si>
+    <t>Savings became 75% of 2019</t>
+  </si>
+  <si>
+    <t>Savings became 50% of 2019</t>
+  </si>
+  <si>
+    <t>Savings became 25% of 2019</t>
+  </si>
+  <si>
+    <t>The business now has negative savings (i.e. it had to borrow money)</t>
+  </si>
+  <si>
+    <t>Savings size increased compared to 2019</t>
+  </si>
+  <si>
+    <t>business_applicable</t>
+  </si>
+  <si>
+    <t>My business took loan(s)</t>
+  </si>
+  <si>
+    <t>My business provided HHS training to staff and workers</t>
+  </si>
+  <si>
+    <t>My business implemented HHS protocols in its premises</t>
+  </si>
+  <si>
+    <t>My business sold (or leased) some of its assets for survival</t>
+  </si>
+  <si>
+    <t>impact_revenue</t>
+  </si>
+  <si>
+    <t>None or insignificant impact</t>
+  </si>
+  <si>
+    <t>Revenue for 2020 was below 25% of 2019</t>
+  </si>
+  <si>
+    <t>Revenue for 2020 was between 25% to 50% of 2019</t>
+  </si>
+  <si>
+    <t>Revenue for 2020 was between 50% to 75% of 2019</t>
+  </si>
+  <si>
+    <t>Revenue for 2020 was between 75% to 100% of 2019</t>
+  </si>
+  <si>
+    <t>Revenue for 2020 increased compared to 2019</t>
+  </si>
+  <si>
+    <t>impact_workforce</t>
+  </si>
+  <si>
+    <t>My workforce size in 2020 was below 25% of 2019</t>
+  </si>
+  <si>
+    <t>My workforce size in 2020 was between 25% to 50% of 2019</t>
+  </si>
+  <si>
+    <t>My workforce size in 2020 was between 50% to 75% of 2019</t>
+  </si>
+  <si>
+    <t>My workforce size in 2020 was between 75% to 100% of 2019</t>
+  </si>
+  <si>
+    <t>My workforce size in 2020 increased compared to 2019</t>
+  </si>
+  <si>
+    <t>change_saving</t>
+  </si>
+  <si>
+    <t>None or insignificant changes</t>
+  </si>
+  <si>
+    <t>Current savings is less than 25% of the base year</t>
+  </si>
+  <si>
+    <t>Current savings is 25 to 50% of the base year</t>
+  </si>
+  <si>
+    <t>Current savings is 50 to 75% of the base year</t>
+  </si>
+  <si>
+    <t>Current savings is 75 to 100% of the base year</t>
+  </si>
+  <si>
+    <t>Current savings is more than 100% of the base year</t>
+  </si>
+  <si>
+    <t>difficulty_pandemic</t>
+  </si>
+  <si>
+    <t>Shortage of supplies / input materials</t>
+  </si>
+  <si>
+    <t>Shortage of human resource</t>
+  </si>
+  <si>
+    <t>Shortage of cash flow</t>
+  </si>
+  <si>
+    <t>Reduced business</t>
+  </si>
+  <si>
+    <t>Maintenance of the physical resource</t>
+  </si>
+  <si>
+    <t>p_hlth_hhs_measures</t>
+  </si>
+  <si>
+    <t>Placed sanitizers at prominent locations</t>
+  </si>
+  <si>
+    <t>Trained our employees on HHS (Health, hygiene and sanitation)</t>
+  </si>
+  <si>
+    <t>Placed thermal screening and disinfection</t>
+  </si>
+  <si>
+    <t>Maintained social m_dist_businessancing at our business premises</t>
+  </si>
+  <si>
+    <t>Introduced/Implemented cashless payments</t>
+  </si>
+  <si>
+    <t>Discontinued buffet services (applicable for hotels and restaurants only)</t>
+  </si>
+  <si>
+    <t>Added COVID-19 friendly marketing messages</t>
+  </si>
+  <si>
+    <t>Outsourced certain services like order management, delivery, etc.</t>
+  </si>
+  <si>
+    <t>We didn't employ any health and sanitation related measures</t>
+  </si>
+  <si>
+    <t>p_hlth_safety_measures</t>
+  </si>
+  <si>
+    <t>Informing workers on Covid-19 transmission and prevention measures</t>
+  </si>
+  <si>
+    <t>Encouraging workers to stay home when they feel sick</t>
+  </si>
+  <si>
+    <t>Maintaining social m_dist_businessancing between workers</t>
+  </si>
+  <si>
+    <t>Working in shifts to reduce congestion</t>
+  </si>
+  <si>
+    <t>Teleworking (remote working, work from home, etc.)</t>
+  </si>
+  <si>
+    <t>Performing temperature checks</t>
+  </si>
+  <si>
+    <t>Providing personal protection equipment like masks</t>
+  </si>
+  <si>
+    <t>Providing/Extending paid sick leave</t>
+  </si>
+  <si>
+    <t>Providing Covid-19 insurance</t>
+  </si>
+  <si>
+    <t>We haven't implemented any safety measures for workers currently</t>
+  </si>
+  <si>
+    <t>financing_options</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>Selling assets</t>
+  </si>
+  <si>
+    <t>Selling equity</t>
+  </si>
+  <si>
+    <t>Selling the entire business</t>
+  </si>
+  <si>
+    <t>ny_hhs</t>
+  </si>
+  <si>
+    <t>No, never.</t>
+  </si>
+  <si>
+    <t>Yes, but we have stopped it now.</t>
+  </si>
+  <si>
+    <t>Yes, my business is still implementing it.</t>
+  </si>
+  <si>
+    <t>p_dedictd_covid_desk</t>
+  </si>
+  <si>
+    <t>hss_training_type</t>
+  </si>
+  <si>
+    <t>In-house</t>
+  </si>
+  <si>
+    <t>External (NTB, NATTA, HAN, TAAN, etc.)</t>
+  </si>
+  <si>
+    <t>p_recvry_strategic_actions_internl</t>
+  </si>
+  <si>
+    <t>Reducing production of goods or services compared to 2019</t>
+  </si>
+  <si>
+    <t>Increasing production due to increased demand compared to Dec 2020</t>
+  </si>
+  <si>
+    <t>Diversifying service offerings to respond to new demands (producing masks, sanitizer, etc.)</t>
+  </si>
+  <si>
+    <t>Starting a different business</t>
+  </si>
+  <si>
+    <t>Diversifying its sales channels – online marketing, sales, delivery, etc.</t>
+  </si>
+  <si>
+    <t>Re-training its workers</t>
+  </si>
+  <si>
+    <t>We did not have to take any action</t>
+  </si>
+  <si>
+    <t>changes_services</t>
+  </si>
+  <si>
+    <t>No changes</t>
+  </si>
+  <si>
+    <t>We introduced new service(s)</t>
+  </si>
+  <si>
+    <t>We stopped some service(s)</t>
+  </si>
+  <si>
+    <t>We completely stopped/halted all services</t>
+  </si>
+  <si>
+    <t>o_rcvry_biggest_support</t>
+  </si>
+  <si>
+    <t>Government agencies (Ministry, Department of Tourism, etc.)</t>
+  </si>
+  <si>
+    <t>Nepal Tourism Board</t>
+  </si>
+  <si>
+    <t>Unions and associations</t>
+  </si>
+  <si>
+    <t>Financial Institutions</t>
+  </si>
+  <si>
+    <t>Property owners</t>
+  </si>
+  <si>
+    <t>Shareholders</t>
+  </si>
+  <si>
+    <t>Friends and family</t>
+  </si>
+  <si>
+    <t>gvnt_scheme</t>
+  </si>
+  <si>
+    <t>I didn't know about the government schemes</t>
+  </si>
+  <si>
+    <t>Governments schemes are not easy to use</t>
+  </si>
+  <si>
+    <t>Governments announcements are not sufficient</t>
+  </si>
+  <si>
+    <t>I have used government schemes and they are helpful to sustain my business</t>
+  </si>
+  <si>
+    <t>n_rcvry_preferred_gov_policy</t>
+  </si>
+  <si>
+    <t>Establishment of an authentic source of information for government’s COVID-related communications (e.g. health advisories, directives, etc.)</t>
+  </si>
+  <si>
+    <t>Regulation of port of entries such as borders, airports</t>
+  </si>
+  <si>
+    <t>Establishment of government’s tourism protection fund</t>
+  </si>
+  <si>
+    <t>Establishment of job retention fund</t>
+  </si>
+  <si>
+    <t>Provision of financial assistance (e.g. no-collateral loans, subsidized loans, etc.)</t>
+  </si>
+  <si>
+    <t>Government provision to categorize safe and unsafe businesses (e.g. red, green, yellow stickers)</t>
+  </si>
+  <si>
+    <t>Skill enhancement training to human resources</t>
+  </si>
+  <si>
+    <t>Training or TOT (Training of Trainers) on Health, Hygiene and Sanitation from the government</t>
+  </si>
+  <si>
+    <t>help_revive</t>
+  </si>
+  <si>
+    <t>Negotiation support with property owners (e.g. owner - renter)</t>
+  </si>
+  <si>
+    <t>Negotiation support with government (e.g. tax cuts)</t>
+  </si>
+  <si>
+    <t>Negotiation support with workforce (e.g. employer - employee)</t>
+  </si>
+  <si>
+    <t>Negotiation with other businesses (e.g. airlines giving tour packages)</t>
+  </si>
+  <si>
+    <t>agree_choice</t>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+  </si>
+  <si>
+    <t>Agree</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Disagree</t>
+  </si>
+  <si>
+    <t>Strongly Disagree</t>
+  </si>
+  <si>
+    <t>measures_revival</t>
+  </si>
+  <si>
+    <t>Financial assistance from the government</t>
+  </si>
+  <si>
+    <t>Investments from shareholders</t>
+  </si>
+  <si>
+    <t>Borrowing from banks</t>
+  </si>
+  <si>
+    <t>Funding from private equity</t>
+  </si>
+  <si>
+    <t>Consolidations, mergers, and acquisitions</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>o_covid_how_long_it_last</t>
+  </si>
+  <si>
+    <t>Less than 6 months (till Sep 2021)</t>
+  </si>
+  <si>
+    <t>6 to 12 months (till Mar 2022)</t>
+  </si>
+  <si>
+    <t>13 to 24 months (till Mar 2023)</t>
+  </si>
+  <si>
+    <t>More than 24 months (beyond Mar 2023 )</t>
+  </si>
+  <si>
+    <t>o_econ_impact_revenue_chng_21_v_19</t>
+  </si>
+  <si>
+    <t>None (or negligible)</t>
+  </si>
+  <si>
+    <t>Revenue is expected to be 25% of 2019</t>
+  </si>
+  <si>
+    <t>Revenue is expected to be 50% of 2019</t>
+  </si>
+  <si>
+    <t>Revenue is expected to be 75% of 2019</t>
+  </si>
+  <si>
+    <t>Revenue is expected to be similar to 2019’s revenue</t>
+  </si>
+  <si>
+    <t>Revenue is expected to be higher than 2019</t>
+  </si>
+  <si>
+    <t>o_econ_impact_wrkfrc_chng_21_v_19</t>
+  </si>
+  <si>
+    <t>Workforce size will be 25% of 2019</t>
+  </si>
+  <si>
+    <t>Workforce size will be 50% of 2019</t>
+  </si>
+  <si>
+    <t>Workforce size will be 75% of 2019</t>
+  </si>
+  <si>
+    <t>Workforce size will be similar to that of 2019</t>
+  </si>
+  <si>
+    <t>Workforce size will be greater than that of 2019</t>
+  </si>
+  <si>
+    <t>challenges_reopening</t>
+  </si>
+  <si>
+    <t>Meeting capital expenditure</t>
+  </si>
+  <si>
+    <t>Retaining existing workforce</t>
+  </si>
+  <si>
+    <t>Acquiring additional workforce</t>
+  </si>
+  <si>
+    <t>Acquiring/finding enough clients</t>
+  </si>
+  <si>
+    <t>Understanding the needs and aspirations of source markets (source markets are foreign or domestic places from where the tourists arrive)</t>
+  </si>
+  <si>
+    <t>revival_manpower</t>
+  </si>
+  <si>
+    <t>Yes, They will back instantly.</t>
+  </si>
+  <si>
+    <t>Yes, They will back but will take certain time</t>
+  </si>
+  <si>
+    <t>Some will not return so we have to prepare for developing alternative employee</t>
+  </si>
+  <si>
+    <t>Industry will face the scarcity of skilled human resources</t>
+  </si>
+  <si>
+    <t>difficulty_coming</t>
+  </si>
+  <si>
+    <t>Shortage of human resource manpower</t>
+  </si>
+  <si>
+    <t>Maintenance of physical resources</t>
+  </si>
+  <si>
+    <t>b_services_offered_pre_covid</t>
+  </si>
+  <si>
+    <t>Accommodation (overnight stay)</t>
+  </si>
+  <si>
+    <t>Adventure equipments renting</t>
+  </si>
+  <si>
+    <t>Adventure sports (rafting, bungee, etc.)</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>Flight booking</t>
+  </si>
+  <si>
+    <t>Food delivery</t>
+  </si>
+  <si>
+    <t>Gymnasium</t>
+  </si>
+  <si>
+    <t>Hotel booking</t>
+  </si>
+  <si>
+    <t>Online services (booking, order management, delivery)</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>Souvenirs and/or shops</t>
+  </si>
+  <si>
+    <t>Spa</t>
+  </si>
+  <si>
+    <t>Swimming pool</t>
+  </si>
+  <si>
+    <t>Tour packages</t>
+  </si>
+  <si>
+    <t>Travel guides and/or porters</t>
+  </si>
+  <si>
+    <t>Vehicle booking</t>
+  </si>
+  <si>
+    <t>b_services_offered_post_covid</t>
+  </si>
+  <si>
+    <t>Isolation services</t>
+  </si>
+  <si>
+    <t>Quarantine services</t>
+  </si>
+  <si>
+    <t>o_do_u_know_of_gov_schemes</t>
+  </si>
+  <si>
+    <t>I am NOT aware of such government schemes.</t>
+  </si>
+  <si>
+    <t>No, I have not used any government scheme but I know about such schemes.</t>
+  </si>
+  <si>
+    <t>Yes, I have used one or more government schemes.</t>
+  </si>
+  <si>
+    <t>o_how_efctv_gov_schemes</t>
+  </si>
+  <si>
+    <t>These schemes are difficult to understand</t>
+  </si>
+  <si>
+    <t>These schemes are not easy to use</t>
+  </si>
+  <si>
+    <t>These schemes are not sufficient</t>
+  </si>
+  <si>
+    <t>r_gov_scheme_which_how_efctv</t>
+  </si>
+  <si>
+    <t>This scheme is difficult to understand</t>
+  </si>
+  <si>
+    <t>This scheme is not easy to use</t>
+  </si>
+  <si>
+    <t>This scheme is not sufficient</t>
+  </si>
+  <si>
+    <t>This scheme has been helpful to sustain my business</t>
+  </si>
+  <si>
+    <t>m_biz_years_in_operation</t>
+  </si>
+  <si>
+    <t>Less than a year</t>
+  </si>
+  <si>
+    <t>1 to 2 years</t>
+  </si>
+  <si>
+    <t>11 years or above</t>
+  </si>
+  <si>
+    <t>m_biz_unn_membrshps</t>
+  </si>
+  <si>
+    <t>HAN</t>
+  </si>
+  <si>
+    <t>Hotel Professional Federation of Nepal</t>
+  </si>
+  <si>
+    <t>NARA</t>
+  </si>
+  <si>
+    <t>NATA</t>
+  </si>
+  <si>
+    <t>NMA</t>
+  </si>
+  <si>
+    <t>REBAN</t>
+  </si>
+  <si>
+    <t>TAAN</t>
+  </si>
+  <si>
+    <t>p_recvry_strategic_actions_externl</t>
+  </si>
+  <si>
+    <t>Negotiating payment terms with banks and suppliers</t>
+  </si>
+  <si>
+    <t>Providing lobbying support to trade unions and associations</t>
+  </si>
+  <si>
+    <t>Negotiating with workers’ unions</t>
+  </si>
+  <si>
+    <t>Negotiating with property owners, house owners, renters, landowners, etc.</t>
+  </si>
+  <si>
+    <t>Partnering with other businesses</t>
+  </si>
+  <si>
+    <t>Increasing the number of shareholders</t>
+  </si>
+  <si>
+    <t>Sharing property and assets with other businesses</t>
+  </si>
+  <si>
+    <t>We are not taking any action currently (or plan to take such actions)</t>
+  </si>
+  <si>
+    <t>other_related</t>
+  </si>
+  <si>
+    <t>other_related_1</t>
+  </si>
+  <si>
+    <t>other_related_2</t>
+  </si>
+  <si>
+    <t>o_rcvry_biggest_diffclties</t>
+  </si>
+  <si>
+    <t>Winning the confidence of tourists and guests in the context of COVID-19</t>
+  </si>
+  <si>
+    <t>Understanding and meeting the demands of source markets (source markets are foreign or domestic places from where the tourists arrive)</t>
+  </si>
+  <si>
+    <t>Ensuring health and safety measures for the guests and tourists</t>
+  </si>
+  <si>
+    <t>Ensuring health and safety measures for the workforce</t>
+  </si>
+  <si>
+    <t>Shortage of goods, supplies / input materials</t>
+  </si>
+  <si>
+    <t>Shortage of additional loans or funds</t>
+  </si>
+  <si>
+    <t>o_expectd_problms_next_6_mnths</t>
+  </si>
+  <si>
+    <t>My business will have difficulties in paying back existing loans</t>
+  </si>
+  <si>
+    <t>My business will have difficulties to acquire additional loans or funds</t>
+  </si>
+  <si>
+    <t>My business will have difficulties in paying its taxes</t>
+  </si>
+  <si>
+    <t>My business will have difficulties in covering its operating costs</t>
+  </si>
+  <si>
+    <t>My business will most likely face labor-related issues</t>
+  </si>
+  <si>
+    <t>My business will have difficulties in getting enough customers required for its survival</t>
+  </si>
+  <si>
+    <t>n_rcvry_preferred_loan_pybck_incntv</t>
+  </si>
+  <si>
+    <t>Reduced interest rates on existing loans</t>
+  </si>
+  <si>
+    <t>Extension of loan periods</t>
+  </si>
+  <si>
+    <t>n_rcvry_preferred_fund_aprvl_incntv</t>
+  </si>
+  <si>
+    <t>Short-term loans without collateral</t>
+  </si>
+  <si>
+    <t>Long-term subsidized loans</t>
+  </si>
+  <si>
+    <t>n_rcvry_preferred_fin_source</t>
+  </si>
+  <si>
+    <t>n_rcvry_preferred_tax_asstnc</t>
+  </si>
+  <si>
+    <t>Tax reduction</t>
+  </si>
+  <si>
+    <t>Tax deferral</t>
+  </si>
+  <si>
+    <t>Exemption of fines on taxes</t>
+  </si>
+  <si>
+    <t>VAT return (मूल्य अभिवृद्धि कर फिर्ता दिने )</t>
+  </si>
+  <si>
+    <t>Decrease sales tax and VAT rates</t>
+  </si>
+  <si>
+    <t>n_rcvry_preferred_tax_asstn_other</t>
+  </si>
+  <si>
+    <t>Subsidy on utilities (e.g. electricity, water bills)</t>
+  </si>
+  <si>
+    <t>Subsidy on property rental fees</t>
+  </si>
+  <si>
+    <t>Subsidy on imports</t>
+  </si>
+  <si>
+    <t>n_rcvry_preferred_labor_asstnc</t>
+  </si>
+  <si>
+    <t>Government provision to not increase minimum wages for the next some time</t>
+  </si>
+  <si>
+    <t>Increased access to skilled/semi-skilled workers</t>
+  </si>
+  <si>
+    <t>Prioritized provision of COVID-19 vaccination to my workers/employees</t>
+  </si>
+  <si>
+    <t>n_rcvry_preferred_outreach_other</t>
+  </si>
+  <si>
+    <t>Knowledge of the needs of source markets (source markets are foreign or domestic places from where the tourists arrive)</t>
+  </si>
+  <si>
+    <t>Business generation programs and events by governments and other stakeholders</t>
+  </si>
+  <si>
+    <t>Digital marketing skills</t>
+  </si>
+  <si>
+    <t>o_perm_stop_biz_start_new</t>
+  </si>
+  <si>
+    <t>Yes, started a new business in the tourism sector</t>
+  </si>
+  <si>
+    <t>Yes, started a new business in a non-tourism sector</t>
+  </si>
+  <si>
+    <t>o_perm_stop_biz_future_retrn_trsm_biz</t>
+  </si>
+  <si>
+    <t>o_perm_stop_biz_new_biz_trsm_sector</t>
+  </si>
+  <si>
+    <t>Hotel and accommodation</t>
+  </si>
+  <si>
+    <t>Travel and Tours</t>
+  </si>
+  <si>
+    <t>Trekking or Mountaineering</t>
+  </si>
+  <si>
+    <t>Adventure Sports</t>
+  </si>
+  <si>
+    <t>o_perm_stop_biz_new_biz_which</t>
+  </si>
+  <si>
+    <t>Accountancy, banking, finance</t>
+  </si>
+  <si>
+    <t>Business, consulting and management</t>
+  </si>
+  <si>
+    <t>Charity and voluntary works</t>
+  </si>
+  <si>
+    <t>Creative arts and design</t>
+  </si>
+  <si>
+    <t>Energy and utilities</t>
+  </si>
+  <si>
+    <t>Engineering and manufacturing</t>
+  </si>
+  <si>
+    <t>Environment and agriculture</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>Marketing, advertising and Public Relations</t>
+  </si>
+  <si>
+    <t>Media and Internet</t>
+  </si>
+  <si>
+    <t>Property and construction</t>
+  </si>
+  <si>
+    <t>Public services and administration</t>
+  </si>
+  <si>
+    <t>Retail and sales</t>
+  </si>
+  <si>
+    <t>Teaching/Education</t>
+  </si>
+  <si>
+    <t>Transport and logistics</t>
+  </si>
+  <si>
+    <t>o_perm_stop_biz_start_new_job</t>
+  </si>
+  <si>
+    <t>Yes, it is a tourism-related job</t>
+  </si>
+  <si>
+    <t>Yes, but it is a non-tourism related job</t>
+  </si>
+  <si>
+    <t>o_perm_stop_biz_start_new_job_trsm_sector</t>
+  </si>
+  <si>
+    <t>Chef/cook</t>
+  </si>
+  <si>
+    <t>o_perm_stop_biz_new_job_sector</t>
+  </si>
+  <si>
+    <t>o_rcvry_biggest_diffclties_rnk1</t>
+  </si>
+  <si>
+    <t>i_covid_effect_business_rnk1</t>
+  </si>
+  <si>
+    <t>i_fin_savings_chng_2020_v_2019_new</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1611,6 +3373,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Noto Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1634,7 +3402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1651,6 +3419,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1869,16 +3639,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F485"/>
+  <dimension ref="A1:F1112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
-      <selection activeCell="D483" sqref="D483"/>
+    <sheetView tabSelected="1" topLeftCell="A1090" workbookViewId="0">
+      <selection activeCell="D1104" sqref="D1035:D1104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.73046875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7619,7 +9389,7 @@
         <v>318</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>513</v>
+        <v>538</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>312</v>
@@ -7637,7 +9407,7 @@
         <v>319</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>313</v>
@@ -7654,7 +9424,9 @@
       <c r="C321" s="2">
         <v>320</v>
       </c>
-      <c r="D321" s="1"/>
+      <c r="D321" s="1" t="s">
+        <v>536</v>
+      </c>
       <c r="E321" s="1" t="s">
         <v>314</v>
       </c>
@@ -7670,7 +9442,9 @@
       <c r="C322" s="2">
         <v>321</v>
       </c>
-      <c r="D322" s="1"/>
+      <c r="D322" s="1" t="s">
+        <v>539</v>
+      </c>
       <c r="E322" s="1" t="s">
         <v>315</v>
       </c>
@@ -7686,7 +9460,9 @@
       <c r="C323" s="2">
         <v>322</v>
       </c>
-      <c r="D323" s="1"/>
+      <c r="D323" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="E323" s="1" t="s">
         <v>290</v>
       </c>
@@ -7702,7 +9478,9 @@
       <c r="C324" s="2">
         <v>323</v>
       </c>
-      <c r="D324" s="1"/>
+      <c r="D324" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="E324" s="1" t="s">
         <v>316</v>
       </c>
@@ -7890,7 +9668,9 @@
       <c r="C336" s="2">
         <v>335</v>
       </c>
-      <c r="D336" s="1"/>
+      <c r="D336" s="1" t="s">
+        <v>528</v>
+      </c>
       <c r="E336" s="1" t="s">
         <v>327</v>
       </c>
@@ -7906,7 +9686,9 @@
       <c r="C337" s="2">
         <v>336</v>
       </c>
-      <c r="D337" s="1"/>
+      <c r="D337" s="1" t="s">
+        <v>529</v>
+      </c>
       <c r="E337" s="1" t="s">
         <v>328</v>
       </c>
@@ -7922,7 +9704,9 @@
       <c r="C338" s="2">
         <v>337</v>
       </c>
-      <c r="D338" s="1"/>
+      <c r="D338" s="1" t="s">
+        <v>530</v>
+      </c>
       <c r="E338" s="1" t="s">
         <v>329</v>
       </c>
@@ -7938,7 +9722,9 @@
       <c r="C339" s="2">
         <v>338</v>
       </c>
-      <c r="D339" s="1"/>
+      <c r="D339" s="1" t="s">
+        <v>531</v>
+      </c>
       <c r="E339" s="1" t="s">
         <v>330</v>
       </c>
@@ -7954,7 +9740,9 @@
       <c r="C340" s="2">
         <v>339</v>
       </c>
-      <c r="D340" s="1"/>
+      <c r="D340" s="1" t="s">
+        <v>526</v>
+      </c>
       <c r="E340" s="1" t="s">
         <v>331</v>
       </c>
@@ -7970,7 +9758,9 @@
       <c r="C341" s="2">
         <v>340</v>
       </c>
-      <c r="D341" s="1"/>
+      <c r="D341" s="1" t="s">
+        <v>532</v>
+      </c>
       <c r="E341" s="1" t="s">
         <v>332</v>
       </c>
@@ -7986,7 +9776,9 @@
       <c r="C342" s="2">
         <v>341</v>
       </c>
-      <c r="D342" s="1"/>
+      <c r="D342" s="1" t="s">
+        <v>522</v>
+      </c>
       <c r="E342" s="1" t="s">
         <v>333</v>
       </c>
@@ -8002,7 +9794,9 @@
       <c r="C343" s="2">
         <v>342</v>
       </c>
-      <c r="D343" s="1"/>
+      <c r="D343" s="1" t="s">
+        <v>533</v>
+      </c>
       <c r="E343" s="1" t="s">
         <v>334</v>
       </c>
@@ -8018,7 +9812,9 @@
       <c r="C344" s="2">
         <v>343</v>
       </c>
-      <c r="D344" s="1"/>
+      <c r="D344" s="1" t="s">
+        <v>523</v>
+      </c>
       <c r="E344" s="1" t="s">
         <v>335</v>
       </c>
@@ -8034,7 +9830,9 @@
       <c r="C345" s="2">
         <v>344</v>
       </c>
-      <c r="D345" s="1"/>
+      <c r="D345" s="1" t="s">
+        <v>524</v>
+      </c>
       <c r="E345" s="1" t="s">
         <v>336</v>
       </c>
@@ -8050,7 +9848,9 @@
       <c r="C346" s="2">
         <v>345</v>
       </c>
-      <c r="D346" s="1"/>
+      <c r="D346" s="1" t="s">
+        <v>534</v>
+      </c>
       <c r="E346" s="1" t="s">
         <v>337</v>
       </c>
@@ -8066,7 +9866,9 @@
       <c r="C347" s="2">
         <v>346</v>
       </c>
-      <c r="D347" s="1"/>
+      <c r="D347" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="E347" s="1" t="s">
         <v>290</v>
       </c>
@@ -8082,7 +9884,9 @@
       <c r="C348" s="2">
         <v>347</v>
       </c>
-      <c r="D348" s="1"/>
+      <c r="D348" s="1" t="s">
+        <v>525</v>
+      </c>
       <c r="E348" s="1" t="s">
         <v>338</v>
       </c>
@@ -10370,7 +12174,7 @@
     </row>
     <row r="477" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B477" s="2">
         <v>1</v>
@@ -10379,7 +12183,7 @@
         <v>476</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E477" s="1" t="s">
         <v>318</v>
@@ -10387,7 +12191,7 @@
     </row>
     <row r="478" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B478" s="2">
         <v>2</v>
@@ -10396,7 +12200,7 @@
         <v>477</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E478" s="1" t="s">
         <v>319</v>
@@ -10404,7 +12208,7 @@
     </row>
     <row r="479" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B479" s="2">
         <v>3</v>
@@ -10413,7 +12217,7 @@
         <v>478</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E479" s="1" t="s">
         <v>320</v>
@@ -10421,7 +12225,7 @@
     </row>
     <row r="480" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B480" s="2">
         <v>4</v>
@@ -10430,7 +12234,7 @@
         <v>479</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E480" s="1" t="s">
         <v>321</v>
@@ -10438,7 +12242,7 @@
     </row>
     <row r="481" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B481" s="2">
         <v>5</v>
@@ -10447,7 +12251,7 @@
         <v>480</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E481" s="1" t="s">
         <v>322</v>
@@ -10455,7 +12259,7 @@
     </row>
     <row r="482" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B482" s="2">
         <v>6</v>
@@ -10464,7 +12268,7 @@
         <v>481</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E482" s="1" t="s">
         <v>323</v>
@@ -10472,7 +12276,7 @@
     </row>
     <row r="483" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B483" s="2">
         <v>7</v>
@@ -10481,7 +12285,7 @@
         <v>482</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E483" s="1" t="s">
         <v>324</v>
@@ -10489,7 +12293,7 @@
     </row>
     <row r="484" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B484" s="2">
         <v>8</v>
@@ -10506,7 +12310,7 @@
     </row>
     <row r="485" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B485" s="2">
         <v>9</v>
@@ -10519,10 +12323,6996 @@
       </c>
       <c r="E485" s="1" t="s">
         <v>325</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A486" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B486" t="b">
+        <v>1</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A487" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B487" t="b">
+        <v>0</v>
+      </c>
+      <c r="D487" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A488" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B488" s="2">
+        <v>1</v>
+      </c>
+      <c r="C488" s="2">
+        <v>335</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A489" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B489" s="2">
+        <v>2</v>
+      </c>
+      <c r="C489" s="2">
+        <v>336</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A490" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B490" s="2">
+        <v>3</v>
+      </c>
+      <c r="C490" s="2">
+        <v>337</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A491" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B491" s="2">
+        <v>4</v>
+      </c>
+      <c r="C491" s="2">
+        <v>338</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A492" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B492" s="2">
+        <v>5</v>
+      </c>
+      <c r="C492" s="2">
+        <v>339</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A493" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B493" s="2">
+        <v>6</v>
+      </c>
+      <c r="C493" s="2">
+        <v>340</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A494" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B494" s="2">
+        <v>7</v>
+      </c>
+      <c r="C494" s="2">
+        <v>341</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A495" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B495" s="2">
+        <v>8</v>
+      </c>
+      <c r="C495" s="2">
+        <v>342</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A496" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B496" s="2">
+        <v>9</v>
+      </c>
+      <c r="C496" s="2">
+        <v>343</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A497" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B497" s="2">
+        <v>10</v>
+      </c>
+      <c r="C497" s="2">
+        <v>344</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A498" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B498" s="2">
+        <v>11</v>
+      </c>
+      <c r="C498" s="2">
+        <v>345</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A499" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B499" s="2">
+        <v>12</v>
+      </c>
+      <c r="C499" s="2">
+        <v>346</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A500" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B500" s="2">
+        <v>13</v>
+      </c>
+      <c r="C500" s="2">
+        <v>347</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A501" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B501" s="2">
+        <v>1</v>
+      </c>
+      <c r="C501" s="2">
+        <v>317</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A502" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B502" s="2">
+        <v>2</v>
+      </c>
+      <c r="C502" s="2">
+        <v>318</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A503" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B503" s="2">
+        <v>3</v>
+      </c>
+      <c r="C503" s="2">
+        <v>319</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A504" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B504" s="2">
+        <v>4</v>
+      </c>
+      <c r="C504" s="2">
+        <v>320</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A505" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B505" s="2">
+        <v>5</v>
+      </c>
+      <c r="C505" s="2">
+        <v>321</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E505" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A506" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B506" s="2">
+        <v>6</v>
+      </c>
+      <c r="C506" s="2">
+        <v>322</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E506" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A507" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B507" s="2">
+        <v>7</v>
+      </c>
+      <c r="C507" s="2">
+        <v>323</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A508" s="6"/>
+      <c r="B508" s="6"/>
+      <c r="C508" s="6"/>
+    </row>
+    <row r="509" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A509" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B509" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D509" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A510" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B510" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D510" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A511" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B511" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D511" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A512" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B512" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D512" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A513" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B513" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D513" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A514" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B514" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D514" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A515" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B515" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D515" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A516" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B516" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D516" s="6" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A517" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B517" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D517" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A518" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B518" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="D518" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A519" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B519" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D519" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A520" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B520" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D520" s="6" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A521" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B521" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="D521" s="6" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A522" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B522" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="D522" s="6" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A523" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B523" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="D523" s="6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A524" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B524" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="D524" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A525" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B525" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="D525" s="6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A526" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B526" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D526" s="6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A527" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B527" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="D527" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A528" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B528" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="D528" s="6" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A529" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B529" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="D529" s="6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A530" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B530" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="D530" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A531" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B531" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="D531" s="6" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A532" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B532" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="D532" s="6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A533" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B533" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="D533" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A534" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B534" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="D534" s="6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A535" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B535" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="D535" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A536" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B536" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="D536" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A537" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B537" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="D537" s="6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A538" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B538" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="D538" s="6" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A539" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B539" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D539" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A540" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B540" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="D540" s="6" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A541" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B541" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="D541" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A542" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B542" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="D542" s="6" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A543" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B543" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="D543" s="6" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A544" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B544" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="D544" s="6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A545" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B545" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="D545" s="6" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A546" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B546" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="D546" s="6" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A547" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B547" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="D547" s="6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A548" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B548" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="D548" s="6" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A549" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B549" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="D549" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A550" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B550" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="D550" s="6" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A551" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B551" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="D551" s="6" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A552" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B552" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="D552" s="6" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A553" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B553" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="D553" s="6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A554" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B554" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="D554" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A555" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B555" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="D555" s="6" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A556" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B556" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="D556" s="6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A557" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B557" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="D557" s="6" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A558" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B558" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="D558" s="6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A559" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B559" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="D559" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A560" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B560" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="D560" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A561" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B561" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="D561" s="6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A562" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B562" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="D562" s="6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A563" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B563" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="D563" s="6" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A564" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B564" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="D564" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A565" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B565" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D565" s="6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A566" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B566" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="D566" s="6" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A567" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B567" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="D567" s="6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A568" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B568" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="D568" s="6" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A569" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B569" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="D569" s="6" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A570" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B570" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="D570" s="6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A571" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B571" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="D571" s="6" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A572" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B572" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="D572" s="6" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A573" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B573" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="D573" s="6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A574" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B574" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="D574" s="6" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A575" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B575" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="D575" s="6" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A576" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B576" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="D576" s="6" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A577" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B577" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="D577" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A578" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B578" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="D578" s="6" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A579" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B579" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="D579" s="6" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A580" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B580" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="D580" s="6" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A581" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B581" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="D581" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A582" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B582" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="D582" s="6" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A583" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B583" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="D583" s="6" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A584" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B584" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="D584" s="6" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A585" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B585" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="D585" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A586" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B586" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="D586" s="6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A587" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B587" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="D587" s="6" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A588" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B588" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="D588" s="6" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A589" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B589" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="D589" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A590" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B590" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="D590" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A591" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B591" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="D591" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A592" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B592" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="D592" s="6" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A593" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B593" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="D593" s="6" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A594" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B594" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="D594" s="6" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A595" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B595" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D595" s="6" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A596" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B596" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="D596" s="6" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A597" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B597" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="D597" s="6" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A598" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B598" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="D598" s="6" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A599" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B599" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="D599" s="6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A600" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B600" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="D600" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A601" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B601" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="D601" s="6" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A602" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B602" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="D602" s="6" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A603" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B603" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="D603" s="6" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A604" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B604" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="D604" s="6" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A605" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B605" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="D605" s="6" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A606" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B606" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="D606" s="6" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A607" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="B607" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D607" s="6" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A608" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="B608" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D608" s="6" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A609" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="B609" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D609" s="6" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A610" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="B610" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D610" s="6" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A611" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="B611" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D611" s="6" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A612" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="B612" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D612" s="6" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A613" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="B613" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D613" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A614" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="B614" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D614" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A615" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="B615" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D615" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A616" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="B616" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D616" s="6" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A617" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="B617" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D617" s="6" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A618" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="B618" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D618" s="6" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A619" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="B619" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D619" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A620" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="B620" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D620" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A621" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="B621" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D621" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A622" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="B622" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D622" s="6" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A623" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="B623" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D623" s="6" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A624" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B624" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D624" s="6" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A625" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B625" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D625" s="6" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A626" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B626" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D626" s="6" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A627" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B627" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D627" s="6" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A628" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B628" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D628" s="6" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A629" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B629" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D629" s="6" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A630" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B630" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D630" s="6" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A631" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B631" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D631" s="6" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A632" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B632" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D632" s="6" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A633" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B633" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="D633" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A634" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B634" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D634" s="6" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A635" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="B635" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D635" s="6" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A636" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="B636" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D636" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A637" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="B637" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D637" s="6" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A638" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="B638" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D638" s="6" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A639" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="B639" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D639" s="6" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A640" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="B640" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D640" s="6" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A641" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="B641" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D641" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A642" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="B642" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D642" s="6" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A643" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="B643" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D643" s="6" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A644" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="B644" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D644" s="6" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A645" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="B645" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D645" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A646" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="B646" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="D646" s="6" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A647" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="B647" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D647" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A648" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="B648" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D648" s="6" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A649" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="B649" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D649" s="6" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A650" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="B650" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D650" s="6" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A651" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="B651" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D651" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A652" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="B652" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D652" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A653" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="B653" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D653" s="6" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A654" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="B654" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D654" s="6" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A655" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="B655" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D655" s="6" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A656" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="B656" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D656" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A657" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="B657" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D657" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A658" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="B658" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D658" s="6" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A659" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="B659" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D659" s="6" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A660" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="B660" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D660" s="6" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A661" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="B661" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D661" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A662" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="B662" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D662" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A663" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="B663" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D663" s="6" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A664" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="B664" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D664" s="6" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A665" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="B665" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D665" s="6" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A666" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="B666" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D666" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A667" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="B667" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D667" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A668" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="B668" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D668" s="6" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A669" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="B669" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D669" s="6" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A670" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="B670" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D670" s="6" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A671" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="B671" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D671" s="6" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A672" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="B672" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D672" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A673" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="B673" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D673" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A674" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="B674" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D674" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A675" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="B675" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D675" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A676" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="B676" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D676" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A677" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="B677" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D677" s="6" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A678" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="B678" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D678" s="6" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A679" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="B679" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D679" s="6" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A680" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="B680" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D680" s="6" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A681" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="B681" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D681" s="6" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A682" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="B682" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D682" s="6" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A683" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="B683" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D683" s="6" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A684" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="B684" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D684" s="6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A685" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="B685" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D685" s="6" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A686" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="B686" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D686" s="6" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A687" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="B687" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D687" s="6" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A688" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="B688" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D688" s="6" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A689" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="B689" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D689" s="6" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A690" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="B690" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D690" s="6" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A691" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="B691" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D691" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A692" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="B692" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D692" s="6" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A693" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="B693" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D693" s="6" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A694" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="B694" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D694" s="6" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A695" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="B695" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D695" s="6" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A696" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="B696" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D696" s="6" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A697" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="B697" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D697" s="7" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A698" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="B698" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D698" s="6" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A699" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="B699" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D699" s="6" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A700" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="B700" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D700" s="6" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A701" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="B701" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D701" s="6" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A702" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="B702" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D702" s="6" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A703" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="B703" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D703" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A704" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="B704" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D704" s="6" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A705" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="B705" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D705" s="6" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A706" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="B706" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D706" s="6" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A707" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="B707" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D707" s="6" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A708" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="B708" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D708" s="6" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A709" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="B709" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D709" s="6" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A710" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="B710" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D710" s="6" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A711" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="B711" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D711" s="6" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A712" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="B712" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D712" s="6" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A713" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="B713" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D713" s="6" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A714" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="B714" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D714" s="6" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A715" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="B715" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D715" s="6" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A716" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="B716" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D716" s="6" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A717" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="B717" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D717" s="6" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A718" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="B718" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D718" s="6" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A719" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="B719" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D719" s="6" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A720" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="B720" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D720" s="6" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A721" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="B721" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D721" s="6" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A722" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="B722" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D722" s="6" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A723" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="B723" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D723" s="6" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A724" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="B724" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D724" s="6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A725" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="B725" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D725" s="6" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A726" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="B726" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D726" s="6" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A727" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="B727" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D727" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A728" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="B728" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D728" s="6" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A729" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="B729" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D729" s="6" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A730" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="B730" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D730" s="6" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A731" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="B731" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D731" s="6" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A732" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="B732" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D732" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A733" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="B733" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D733" s="6" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A734" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="B734" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D734" s="6" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A735" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="B735" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D735" s="6" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A736" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="B736" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D736" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A737" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="B737" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="D737" s="6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A738" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="B738" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D738" s="6" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A739" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="B739" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D739" s="6" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A740" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="B740" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D740" s="6" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A741" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="B741" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D741" s="6" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A742" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="B742" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D742" s="6" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A743" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="B743" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D743" s="6" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A744" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="B744" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D744" s="6" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A745" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="B745" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D745" s="6" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A746" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="B746" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D746" s="6" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A747" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="B747" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="D747" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A748" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="B748" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D748" s="6" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A749" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="B749" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D749" s="6" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A750" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="B750" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D750" s="6" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A751" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="B751" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D751" s="6" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A752" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="B752" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D752" s="6" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A753" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="B753" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D753" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A754" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="B754" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D754" s="6" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A755" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="B755" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D755" s="6" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A756" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="B756" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D756" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A757" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="B757" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D757" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A758" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="B758" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D758" s="6" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A759" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="B759" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D759" s="6" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A760" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="B760" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D760" s="6" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A761" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="B761" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D761" s="6" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A762" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="B762" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D762" s="6" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A763" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="B763" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D763" s="6" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A764" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="B764" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D764" s="6" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A765" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="B765" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D765" s="6" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A766" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="B766" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D766" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A767" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="B767" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D767" s="6" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A768" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="B768" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D768" s="6" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A769" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="B769" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D769" s="6" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A770" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="B770" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D770" s="6" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A771" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="B771" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D771" s="6" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A772" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="B772" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D772" s="6" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A773" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="B773" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D773" s="6" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A774" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="B774" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D774" s="6" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A775" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="B775" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D775" s="6" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A776" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="B776" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D776" s="6" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A777" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="B777" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D777" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A778" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="B778" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D778" s="6" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A779" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="B779" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D779" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A780" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="B780" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D780" s="6" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A781" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="B781" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D781" s="6" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A782" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="B782" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D782" s="6" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A783" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="B783" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D783" s="6" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A784" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="B784" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D784" s="6" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A785" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="B785" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D785" s="6" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A786" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="B786" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D786" s="6" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A787" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="B787" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D787" s="6" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A788" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="B788" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D788" s="6" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A789" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="B789" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D789" s="6" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A790" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="B790" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D790" s="6" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A791" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="B791" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D791" s="6" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A792" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="B792" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D792" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A793" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="B793" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D793" s="6" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A794" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="B794" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D794" s="6" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A795" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="B795" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D795" s="6" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A796" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="B796" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D796" s="6" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A797" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="B797" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D797" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A798" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="B798" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D798" s="6" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A799" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="B799" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D799" s="6" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A800" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="B800" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D800" s="6" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A801" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="B801" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D801" s="6" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A802" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="B802" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D802" s="6" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A803" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="B803" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D803" s="6" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A804" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="B804" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D804" s="6" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A805" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="B805" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D805" s="6" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A806" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="B806" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D806" s="6" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A807" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="B807" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D807" s="6" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A808" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="B808" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D808" s="6" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A809" s="6" t="s">
+        <v>945</v>
+      </c>
+      <c r="B809" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D809" s="6" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A810" s="6" t="s">
+        <v>945</v>
+      </c>
+      <c r="B810" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D810" s="6" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A811" s="6" t="s">
+        <v>945</v>
+      </c>
+      <c r="B811" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D811" s="6" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A812" s="6" t="s">
+        <v>945</v>
+      </c>
+      <c r="B812" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D812" s="6" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A813" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="B813" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D813" s="6" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A814" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="B814" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D814" s="6" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A815" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="B815" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D815" s="6" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A816" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="B816" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D816" s="6" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A817" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="B817" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D817" s="6" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A818" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="B818" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D818" s="6" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A819" s="6" t="s">
+        <v>957</v>
+      </c>
+      <c r="B819" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D819" s="6" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A820" s="6" t="s">
+        <v>957</v>
+      </c>
+      <c r="B820" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D820" s="6" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A821" s="6" t="s">
+        <v>957</v>
+      </c>
+      <c r="B821" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D821" s="6" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A822" s="6" t="s">
+        <v>957</v>
+      </c>
+      <c r="B822" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D822" s="6" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A823" s="6" t="s">
+        <v>957</v>
+      </c>
+      <c r="B823" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D823" s="6" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A824" s="6" t="s">
+        <v>957</v>
+      </c>
+      <c r="B824" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D824" s="6" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A825" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="B825" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D825" s="6" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A826" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="B826" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D826" s="6" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A827" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="B827" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D827" s="6" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A828" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="B828" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D828" s="6" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A829" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="B829" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D829" s="6" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A830" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="B830" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D830" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A831" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="B831" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D831" s="6" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A832" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="B832" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D832" s="6" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A833" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="B833" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D833" s="6" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A834" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="B834" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D834" s="6" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A835" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="B835" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D835" s="6" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A836" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="B836" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D836" s="6" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A837" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="B837" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D837" s="6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A838" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="B838" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D838" s="6" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A839" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="B839" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D839" s="6" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A840" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="B840" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D840" s="6" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A841" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="B841" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D841" s="6" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A842" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="B842" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D842" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A843" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="B843" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D843" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A844" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="B844" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D844" s="6" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A845" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="B845" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D845" s="6" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A846" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="B846" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D846" s="6" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A847" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="B847" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D847" s="6" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A848" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="B848" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D848" s="6" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A849" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="B849" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D849" s="6" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A850" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="B850" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="D850" s="6" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A851" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="B851" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D851" s="6" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A852" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="B852" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D852" s="6" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A853" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="B853" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="D853" s="6" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A854" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="B854" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="D854" s="6" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A855" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="B855" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="D855" s="6" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A856" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="B856" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="D856" s="6" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A857" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="B857" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="D857" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A858" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="B858" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D858" s="6" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A859" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="B859" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D859" s="6" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A860" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="B860" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D860" s="6" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A861" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="B861" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D861" s="6" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A862" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="B862" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D862" s="6" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A863" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="B863" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D863" s="6" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A864" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="B864" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D864" s="6" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A865" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="B865" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D865" s="6" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A866" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="B866" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D866" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A867" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="B867" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="D867" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A868" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="B868" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D868" s="6" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A869" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="B869" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D869" s="6" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A870" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="B870" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="D870" s="6" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A871" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="B871" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="D871" s="6" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A872" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="B872" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="D872" s="6" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A873" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="B873" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="D873" s="6" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A874" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="B874" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="D874" s="6" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A875" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="B875" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D875" s="6" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A876" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="B876" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="D876" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A877" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="B877" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D877" s="6" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A878" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="B878" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D878" s="6" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A879" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="B879" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D879" s="6" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A880" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B880" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D880" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A881" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B881" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D881" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A882" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B882" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D882" s="6" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A883" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B883" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D883" s="6" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A884" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B884" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D884" s="6" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A885" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B885" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D885" s="6" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A886" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B886" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D886" s="6" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A887" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B887" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D887" s="6" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A888" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B888" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D888" s="6" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A889" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B889" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D889" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A890" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B890" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D890" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A891" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B891" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D891" s="6" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A892" s="6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B892" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D892" s="6" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A893" s="6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B893" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D893" s="6" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A894" s="6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B894" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D894" s="6" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A895" s="6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B895" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D895" s="6" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A896" s="6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B896" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D896" s="6" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A897" s="6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B897" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D897" s="6" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A898" s="6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B898" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D898" s="6" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A899" s="6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B899" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D899" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A900" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B900" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D900" s="6" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A901" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B901" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D901" s="6" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A902" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B902" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D902" s="6" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A903" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B903" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D903" s="6" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A904" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B904" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D904" s="6" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A905" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B905" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D905" s="6" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A906" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B906" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D906" s="6" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A907" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B907" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D907" s="6" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A908" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B908" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D908" s="6" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A909" s="6" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B909" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D909" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A910" s="6" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B910" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D910" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A911" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B911" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D911" s="6" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A912" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B912" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D912" s="6" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A913" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B913" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D913" s="6" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A914" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B914" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D914" s="6" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A915" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B915" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D915" s="6" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A916" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B916" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D916" s="6" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A917" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B917" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D917" s="6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A918" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B918" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D918" s="6" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A919" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B919" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D919" s="6" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A920" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B920" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D920" s="6" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A921" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B921" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D921" s="6" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A922" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B922" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D922" s="6" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A923" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B923" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D923" s="6" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A924" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B924" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D924" s="6" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A925" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B925" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D925" s="6" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A926" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B926" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D926" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="927" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A927" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B927" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D927" s="6" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A928" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B928" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D928" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A929" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B929" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D929" s="6" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A930" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B930" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D930" s="6" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A931" s="6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B931" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D931" s="6" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A932" s="6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B932" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D932" s="6" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A933" s="6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B933" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D933" s="6" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A934" s="6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B934" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D934" s="6" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A935" s="6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B935" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D935" s="6" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A936" s="6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B936" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D936" s="6" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A937" s="6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B937" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D937" s="6" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A938" s="6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B938" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D938" s="6" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A939" s="6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B939" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D939" s="6" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A940" s="6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B940" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D940" s="6" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A941" s="6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B941" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D941" s="6" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A942" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B942" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D942" s="6" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A943" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B943" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D943" s="6" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A944" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B944" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D944" s="6" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A945" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B945" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D945" s="6" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A946" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B946" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D946" s="6" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A947" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B947" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D947" s="6" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="948" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A948" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B948" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D948" s="6" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="949" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A949" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B949" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D949" s="6" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="950" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A950" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B950" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D950" s="6" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="951" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A951" s="6" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B951" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D951" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A952" s="6" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B952" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D952" s="6" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A953" s="6" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B953" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D953" s="6" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="954" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A954" s="6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B954" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D954" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="955" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A955" s="6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B955" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D955" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="956" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A956" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B956" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D956" s="6" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="957" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A957" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B957" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D957" s="6" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="958" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A958" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B958" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D958" s="6" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A959" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B959" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D959" s="6" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="960" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A960" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B960" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D960" s="6" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A961" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B961" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D961" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A962" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B962" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D962" s="6" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A963" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B963" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D963" s="6" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A964" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B964" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D964" s="6" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A965" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B965" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D965" s="6" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A966" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B966" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D966" s="6" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A967" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B967" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D967" s="6" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A968" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B968" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D968" s="6" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A969" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B969" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D969" s="6" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A970" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B970" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D970" s="6" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A971" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B971" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="D971" s="6" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A972" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B972" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D972" s="6" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A973" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B973" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D973" s="6" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A974" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B974" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="D974" s="6" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A975" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B975" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="D975" s="6" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A976" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B976" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="D976" s="6" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A977" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B977" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="D977" s="6" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A978" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B978" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="D978" s="6" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A979" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B979" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D979" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A980" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B980" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D980" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A981" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B981" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D981" s="6" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A982" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B982" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D982" s="6" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A983" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B983" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D983" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A984" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B984" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D984" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A985" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B985" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D985" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="986" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A986" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B986" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D986" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A987" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B987" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D987" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A988" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B988" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D988" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="989" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A989" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B989" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D989" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A990" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B990" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D990" s="6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A991" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B991" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D991" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A992" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B992" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="D992" s="6" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A993" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B993" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D993" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A994" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B994" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D994" s="6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="995" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A995" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B995" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="D995" s="6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A996" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B996" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="D996" s="6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A997" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B997" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="D997" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A998" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B998" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D998" s="6" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A999" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B999" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D999" s="6" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1000" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1000" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D1000" s="6" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1001" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1001" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1001" s="6" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1002" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1002" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D1002" s="6" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1003" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1003" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D1003" s="6" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1004" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1004" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D1004" s="6" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1005" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1005" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D1005" s="6" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1006" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1006" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D1006" s="6" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1007" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1007" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="D1007" s="6" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1008" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1008" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D1008" s="6" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1009" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1009" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D1009" s="6" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1010" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1010" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="D1010" s="6" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1011" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1011" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1011" s="6" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1012" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1012" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="D1012" s="6" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1013" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1013" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="D1013" s="6" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1014" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1014" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="D1014" s="6" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1015" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1015" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D1015" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1016" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1016" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D1016" s="6" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1017" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1017" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D1017" s="6" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1018" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1018" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D1018" s="6" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1019" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1019" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1019" s="6" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1020" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1020" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D1020" s="6" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1021" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1021" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D1021" s="6" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1022" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1022" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D1022" s="6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1023" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1023" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D1023" s="6" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1024" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1024" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D1024" s="6" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1025" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1025" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D1025" s="6" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1026" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1026" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D1026" s="6" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1027" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1027" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D1027" s="6" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1028" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1028" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1028" s="6" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1029" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1029" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D1029" s="6" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1030" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1030" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D1030" s="6" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1031" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1031" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D1031" s="6" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1032" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1032" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D1032" s="6" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1033" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1033" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D1033" s="6" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1034" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1034" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="D1034" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1035" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B1035">
+        <v>99</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1036" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B1036">
+        <v>99</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1037" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="B1037">
+        <v>99</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1038" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="B1038">
+        <v>99</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1039" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="B1039">
+        <v>99</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1040" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B1040">
+        <v>99</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1041" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="B1041">
+        <v>99</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1042" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="B1042">
+        <v>99</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1043" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1043">
+        <v>99</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1044" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="B1044">
+        <v>99</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1045" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="B1045">
+        <v>99</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1046" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="B1046">
+        <v>99</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1047" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="B1047">
+        <v>99</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1048" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="B1048">
+        <v>99</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1049" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="B1049">
+        <v>99</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1050" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="B1050">
+        <v>99</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1051" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="B1051">
+        <v>99</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1052" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="B1052">
+        <v>99</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1053" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="B1053">
+        <v>99</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1054" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="B1054">
+        <v>99</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1055" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="B1055">
+        <v>99</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1056" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="B1056">
+        <v>99</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1057" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="B1057">
+        <v>99</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1058" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="B1058">
+        <v>99</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1059" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="B1059">
+        <v>99</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1060" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="B1060">
+        <v>99</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1061" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="B1061">
+        <v>99</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1062" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="B1062">
+        <v>99</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1063" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="B1063">
+        <v>99</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1064" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="B1064">
+        <v>99</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1065" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="B1065">
+        <v>99</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1066" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="B1066">
+        <v>99</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1067" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="B1067">
+        <v>99</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1068" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="B1068">
+        <v>99</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1069" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="B1069">
+        <v>99</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1070" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="B1070">
+        <v>99</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1071" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="B1071">
+        <v>99</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1072" s="6" t="s">
+        <v>945</v>
+      </c>
+      <c r="B1072">
+        <v>99</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1073" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="B1073">
+        <v>99</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1074" s="6" t="s">
+        <v>957</v>
+      </c>
+      <c r="B1074">
+        <v>99</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1075" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="B1075">
+        <v>99</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1076" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="B1076">
+        <v>99</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1077" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="B1077">
+        <v>99</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1078" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="B1078">
+        <v>99</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1079" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="B1079">
+        <v>99</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1080" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1080">
+        <v>99</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1081" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B1081">
+        <v>99</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1082" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B1082">
+        <v>99</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1083" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B1083">
+        <v>99</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1084" s="6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B1084">
+        <v>99</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1085" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B1085">
+        <v>99</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1086" s="6" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B1086">
+        <v>99</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1087" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B1087">
+        <v>99</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1088" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B1088">
+        <v>99</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1089" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B1089">
+        <v>99</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1090" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B1090">
+        <v>99</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1091" s="6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B1091">
+        <v>99</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1092" s="6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B1092">
+        <v>99</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1093" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B1093">
+        <v>99</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1094" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B1094">
+        <v>99</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1095" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1095">
+        <v>99</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1096" s="6" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B1096">
+        <v>99</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1097" s="6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1097">
+        <v>99</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1098" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B1098">
+        <v>99</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1099" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B1099">
+        <v>99</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1100" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B1100">
+        <v>99</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1101" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B1101">
+        <v>99</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1102" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1102">
+        <v>99</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1103" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1103">
+        <v>99</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1104" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1104">
+        <v>99</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1105" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B1105" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D1105" s="6" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1106" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B1106" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D1106" s="6" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1107" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B1107" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D1107" s="6" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1108" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B1108" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1108" s="6" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1109" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B1109" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D1109" s="7" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1110" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B1110" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D1110" s="6" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1111" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B1111" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D1111" s="6" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1112" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B1112" s="6">
+        <v>10</v>
+      </c>
+      <c r="D1112" s="7" t="s">
+        <v>824</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>